--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.26033017017189</v>
+        <v>22.62843725691068</v>
       </c>
       <c r="C2">
-        <v>10.61706011744074</v>
+        <v>15.88677368917502</v>
       </c>
       <c r="D2">
-        <v>10.16281519508397</v>
+        <v>3.678307662025838</v>
       </c>
       <c r="E2">
-        <v>8.326877634300979</v>
+        <v>7.049875164578759</v>
       </c>
       <c r="F2">
-        <v>63.48737364565758</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>34.3710418303474</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.68037383894147</v>
       </c>
       <c r="K2">
-        <v>15.46736904323288</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.857320759627928</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.79998335414919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.86215909746197</v>
+      </c>
+      <c r="N2">
+        <v>12.69346324377291</v>
+      </c>
+      <c r="O2">
+        <v>25.17120097475837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.88647986008098</v>
+        <v>21.03041624552304</v>
       </c>
       <c r="C3">
-        <v>9.856324758999547</v>
+        <v>14.76068929793892</v>
       </c>
       <c r="D3">
-        <v>9.705819185823517</v>
+        <v>3.625407073046143</v>
       </c>
       <c r="E3">
-        <v>8.019963820980486</v>
+        <v>6.999592895577451</v>
       </c>
       <c r="F3">
-        <v>59.70843883687055</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>33.18635448710648</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.709427579157476</v>
       </c>
       <c r="K3">
-        <v>14.32951758577094</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.425628514291217</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.8129613241081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.07968355814751</v>
+      </c>
+      <c r="N3">
+        <v>12.96674875408218</v>
+      </c>
+      <c r="O3">
+        <v>24.39630327015657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.00690006129833</v>
+        <v>20.02605889546587</v>
       </c>
       <c r="C4">
-        <v>9.371318277629223</v>
+        <v>14.03303231279437</v>
       </c>
       <c r="D4">
-        <v>9.420535908993216</v>
+        <v>3.593340591965749</v>
       </c>
       <c r="E4">
-        <v>7.831599971816737</v>
+        <v>6.971892664212398</v>
       </c>
       <c r="F4">
-        <v>57.3216328104193</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>32.47607874805416</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.729624994249765</v>
       </c>
       <c r="K4">
-        <v>13.60059669905431</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.159304785327599</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.17992076875566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.58949225423431</v>
+      </c>
+      <c r="N4">
+        <v>13.13736727290386</v>
+      </c>
+      <c r="O4">
+        <v>23.93698254385433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63914893623966</v>
+        <v>19.62948467493256</v>
       </c>
       <c r="C5">
-        <v>9.168980283682099</v>
+        <v>13.72727853157864</v>
       </c>
       <c r="D5">
-        <v>9.303102834332575</v>
+        <v>3.580381072299501</v>
       </c>
       <c r="E5">
-        <v>7.754888101416688</v>
+        <v>6.961386939244445</v>
       </c>
       <c r="F5">
-        <v>56.33238707658097</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>32.19113684348979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.738431911367656</v>
       </c>
       <c r="K5">
-        <v>13.29569073067302</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.050532699896255</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.91496855385919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.38750964753819</v>
+      </c>
+      <c r="N5">
+        <v>13.20764788584214</v>
+      </c>
+      <c r="O5">
+        <v>23.754009852599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57751473336356</v>
+        <v>19.56304420588689</v>
       </c>
       <c r="C6">
-        <v>9.135093581162682</v>
+        <v>13.67594780182728</v>
       </c>
       <c r="D6">
-        <v>9.283532446724729</v>
+        <v>3.578235782688273</v>
       </c>
       <c r="E6">
-        <v>7.742154073104203</v>
+        <v>6.959689264757918</v>
       </c>
       <c r="F6">
-        <v>56.16712873181854</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>32.14410029093869</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.739928634707164</v>
       </c>
       <c r="K6">
-        <v>13.24457937527693</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.032459204123892</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.8705464149142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.35384362874531</v>
+      </c>
+      <c r="N6">
+        <v>13.21936457954556</v>
+      </c>
+      <c r="O6">
+        <v>23.72388314960048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00197847015685</v>
+        <v>20.02075018608584</v>
       </c>
       <c r="C7">
-        <v>9.368608717233426</v>
+        <v>14.02894631985142</v>
       </c>
       <c r="D7">
-        <v>9.418956918317029</v>
+        <v>3.59316537357955</v>
       </c>
       <c r="E7">
-        <v>7.830565169915044</v>
+        <v>6.971747833328878</v>
       </c>
       <c r="F7">
-        <v>57.30835839525407</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>32.47221742804787</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.729741455174791</v>
       </c>
       <c r="K7">
-        <v>13.59651679154465</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.157838712424063</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.17637604544056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.58677692700205</v>
+      </c>
+      <c r="N7">
+        <v>13.13831200075022</v>
+      </c>
+      <c r="O7">
+        <v>23.93449780339591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.79393977777989</v>
+        <v>22.08780987886325</v>
       </c>
       <c r="C8">
-        <v>10.35835468487369</v>
+        <v>15.50594831516828</v>
       </c>
       <c r="D8">
-        <v>10.00620884025303</v>
+        <v>3.659983365990659</v>
       </c>
       <c r="E8">
-        <v>8.221048877358008</v>
+        <v>7.031869825685903</v>
       </c>
       <c r="F8">
-        <v>62.19821029821645</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>33.95911732085728</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.689891670586767</v>
       </c>
       <c r="K8">
-        <v>15.0811624899873</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.708771332309926</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.46514096428487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.59450626870509</v>
+      </c>
+      <c r="N8">
+        <v>12.78713332769497</v>
+      </c>
+      <c r="O8">
+        <v>24.9006342667182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.03563624672772</v>
+        <v>25.80248012375208</v>
       </c>
       <c r="C9">
-        <v>12.16701996415829</v>
+        <v>18.12052037623507</v>
       </c>
       <c r="D9">
-        <v>11.121908338452</v>
+        <v>3.794198321147867</v>
       </c>
       <c r="E9">
-        <v>8.98703549386622</v>
+        <v>7.175661057656352</v>
       </c>
       <c r="F9">
-        <v>71.26590482592113</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>37.00373646094131</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.631276858454203</v>
       </c>
       <c r="K9">
-        <v>17.76508782710927</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.777451379155202</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.78797109308656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.48571195103906</v>
+      </c>
+      <c r="N9">
+        <v>12.11879645269621</v>
+      </c>
+      <c r="O9">
+        <v>26.92368774187815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.27369151926584</v>
+        <v>28.30236314378172</v>
       </c>
       <c r="C10">
-        <v>13.43147277691659</v>
+        <v>19.87833364602526</v>
       </c>
       <c r="D10">
-        <v>11.92364481221786</v>
+        <v>3.894706353902654</v>
       </c>
       <c r="E10">
-        <v>9.550840335276204</v>
+        <v>7.29812125568322</v>
       </c>
       <c r="F10">
-        <v>77.63714962750153</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>39.31286275121458</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.601365978188265</v>
       </c>
       <c r="K10">
-        <v>19.61875226536051</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.74500851383013</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.38576559128669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.04617838533478</v>
+      </c>
+      <c r="N10">
+        <v>11.63715020163697</v>
+      </c>
+      <c r="O10">
+        <v>28.48699190926878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.266844954561</v>
+        <v>29.39253820517222</v>
       </c>
       <c r="C11">
-        <v>13.99720526011113</v>
+        <v>20.64474809112093</v>
       </c>
       <c r="D11">
-        <v>12.2860196243914</v>
+        <v>3.940867997426975</v>
       </c>
       <c r="E11">
-        <v>9.808222411698749</v>
+        <v>7.357727476242096</v>
       </c>
       <c r="F11">
-        <v>80.48368405213793</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>40.3788416708222</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.590926128612006</v>
       </c>
       <c r="K11">
-        <v>20.44187853315834</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.18590272940202</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.09329988491585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.77593985642378</v>
+      </c>
+      <c r="N11">
+        <v>11.41937722758475</v>
+      </c>
+      <c r="O11">
+        <v>29.215248982152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63997089489876</v>
+        <v>29.79885130409945</v>
       </c>
       <c r="C12">
-        <v>14.21053056072263</v>
+        <v>20.93039175741279</v>
       </c>
       <c r="D12">
-        <v>12.42308913351151</v>
+        <v>3.958416241299702</v>
       </c>
       <c r="E12">
-        <v>9.905910098440259</v>
+        <v>7.380881614204163</v>
       </c>
       <c r="F12">
-        <v>81.55548169339721</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>40.78480904102734</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.587457430905809</v>
       </c>
       <c r="K12">
-        <v>20.75124042927334</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.351282277759</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.35887993012176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.04784926589522</v>
+      </c>
+      <c r="N12">
+        <v>11.33704396319434</v>
+      </c>
+      <c r="O12">
+        <v>29.4935643609448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.55973190415624</v>
+        <v>29.71162983227146</v>
       </c>
       <c r="C13">
-        <v>14.16461917801385</v>
+        <v>20.86907365509522</v>
       </c>
       <c r="D13">
-        <v>12.39357214376105</v>
+        <v>3.954633795397729</v>
       </c>
       <c r="E13">
-        <v>9.884859542429437</v>
+        <v>7.375868669839561</v>
       </c>
       <c r="F13">
-        <v>81.32489822889244</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>40.69727224914957</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.588182422912731</v>
       </c>
       <c r="K13">
-        <v>20.68470787605332</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.31573046807064</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.30177926512051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.98948291867297</v>
+      </c>
+      <c r="N13">
+        <v>11.35477096078373</v>
+      </c>
+      <c r="O13">
+        <v>29.43350932337808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.29759754835764</v>
+        <v>29.42609480344562</v>
       </c>
       <c r="C14">
-        <v>14.01477087379006</v>
+        <v>20.66833877157132</v>
       </c>
       <c r="D14">
-        <v>12.2972982705117</v>
+        <v>3.94231030712132</v>
       </c>
       <c r="E14">
-        <v>9.816254115299609</v>
+        <v>7.359620570970758</v>
       </c>
       <c r="F14">
-        <v>80.57197532810883</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>40.41219398445465</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.590630865034103</v>
       </c>
       <c r="K14">
-        <v>20.4673732454589</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.19953860668534</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.11519363468747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.79839780544339</v>
+      </c>
+      <c r="N14">
+        <v>11.41260130521165</v>
+      </c>
+      <c r="O14">
+        <v>29.23809459170472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.13666788386069</v>
+        <v>29.25035619410833</v>
       </c>
       <c r="C15">
-        <v>13.9228816114474</v>
+        <v>20.54479249829699</v>
       </c>
       <c r="D15">
-        <v>12.23831398913379</v>
+        <v>3.934770828085</v>
       </c>
       <c r="E15">
-        <v>9.774263666454337</v>
+        <v>7.349744701926353</v>
       </c>
       <c r="F15">
-        <v>80.11003634460519</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>40.23787883164243</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.59219464312393</v>
       </c>
       <c r="K15">
-        <v>20.33396318068559</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.12817058724372</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.00061283809314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.6807806756761</v>
+      </c>
+      <c r="N15">
+        <v>11.44803955883262</v>
+      </c>
+      <c r="O15">
+        <v>29.11873154874909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20833565887772</v>
+        <v>28.23019196149151</v>
       </c>
       <c r="C16">
-        <v>13.3943473423992</v>
+        <v>19.82759445160438</v>
       </c>
       <c r="D16">
-        <v>11.89993014036992</v>
+        <v>3.891698767900666</v>
       </c>
       <c r="E16">
-        <v>9.534045138448851</v>
+        <v>7.294306118245783</v>
       </c>
       <c r="F16">
-        <v>77.45018497221284</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>39.24351540636258</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.60211440354613</v>
       </c>
       <c r="K16">
-        <v>19.56459943752872</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.71595949049763</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.3391729590586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.99785589460724</v>
+      </c>
+      <c r="N16">
+        <v>11.65140397925064</v>
+      </c>
+      <c r="O16">
+        <v>28.43974847397633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.63285572872577</v>
+        <v>27.59247690305801</v>
       </c>
       <c r="C17">
-        <v>13.0679815760645</v>
+        <v>19.37924077344119</v>
       </c>
       <c r="D17">
-        <v>11.69185769923254</v>
+        <v>3.865390609855013</v>
       </c>
       <c r="E17">
-        <v>9.386965675339484</v>
+        <v>7.261309718325705</v>
       </c>
       <c r="F17">
-        <v>75.80602185260069</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>38.63751139026447</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.609030825861767</v>
       </c>
       <c r="K17">
-        <v>19.08783236895002</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.45998691052835</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>16.92873748554723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.57080587977385</v>
+      </c>
+      <c r="N17">
+        <v>11.77646111780097</v>
+      </c>
+      <c r="O17">
+        <v>28.02763614031494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.29946292027958</v>
+        <v>27.22123624908581</v>
       </c>
       <c r="C18">
-        <v>12.8793411142042</v>
+        <v>19.11821949423051</v>
       </c>
       <c r="D18">
-        <v>11.57194606213286</v>
+        <v>3.850299856769663</v>
       </c>
       <c r="E18">
-        <v>9.302447120382242</v>
+        <v>7.242696564878319</v>
       </c>
       <c r="F18">
-        <v>74.85537018720343</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>38.29040842012426</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.613305116599668</v>
       </c>
       <c r="K18">
-        <v>18.81167692029207</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.3115420780626</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.69081863302312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.32214535745817</v>
+      </c>
+      <c r="N18">
+        <v>11.84851954500239</v>
+      </c>
+      <c r="O18">
+        <v>27.79220201252704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18615370358645</v>
+        <v>27.09477014791978</v>
       </c>
       <c r="C19">
-        <v>12.81529950587858</v>
+        <v>19.02929720233212</v>
       </c>
       <c r="D19">
-        <v>11.53130112643207</v>
+        <v>3.84519733168682</v>
       </c>
       <c r="E19">
-        <v>9.273841663641544</v>
+        <v>7.236456615905936</v>
       </c>
       <c r="F19">
-        <v>74.5326072513419</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>38.1731343273532</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.614802338509326</v>
       </c>
       <c r="K19">
-        <v>18.71782833209792</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.26106528315537</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.60993425632195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.23742712249556</v>
+      </c>
+      <c r="N19">
+        <v>11.8729411769415</v>
+      </c>
+      <c r="O19">
+        <v>27.71276157541366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.69435992306937</v>
+        <v>27.66082095511232</v>
       </c>
       <c r="C20">
-        <v>13.10281630677652</v>
+        <v>19.42729241831375</v>
       </c>
       <c r="D20">
-        <v>11.71403040994903</v>
+        <v>3.868186889604575</v>
       </c>
       <c r="E20">
-        <v>9.402613937061666</v>
+        <v>7.26478426191309</v>
       </c>
       <c r="F20">
-        <v>75.98155201177266</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>38.70187077192961</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.608263708352959</v>
       </c>
       <c r="K20">
-        <v>19.13878124905299</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.4873597966017</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>16.97261735317458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.61657870427789</v>
+      </c>
+      <c r="N20">
+        <v>11.76313565290917</v>
+      </c>
+      <c r="O20">
+        <v>28.07133998159435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.37466749552976</v>
+        <v>29.51013796003068</v>
       </c>
       <c r="C21">
-        <v>14.05880544398313</v>
+        <v>20.72742212169534</v>
       </c>
       <c r="D21">
-        <v>12.32557870661071</v>
+        <v>3.945928124080097</v>
       </c>
       <c r="E21">
-        <v>9.836398232411952</v>
+        <v>7.364377033422061</v>
       </c>
       <c r="F21">
-        <v>80.79328085897455</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>40.49586488964096</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.589898296408184</v>
       </c>
       <c r="K21">
-        <v>20.53126822894523</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.23370754082181</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.1700582712722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.85464298857478</v>
+      </c>
+      <c r="N21">
+        <v>11.39561200886435</v>
+      </c>
+      <c r="O21">
+        <v>29.29542278342367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.45597671280079</v>
+        <v>30.68095253208883</v>
       </c>
       <c r="C22">
-        <v>14.67860267894458</v>
+        <v>21.55053870017838</v>
       </c>
       <c r="D22">
-        <v>12.72448766496001</v>
+        <v>3.997135979210393</v>
       </c>
       <c r="E22">
-        <v>10.12126944782902</v>
+        <v>7.432874408162927</v>
       </c>
       <c r="F22">
-        <v>83.90322331595063</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>41.68186721391081</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.580736217258207</v>
       </c>
       <c r="K22">
-        <v>21.4280460346285</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.71244628620172</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.93922920090558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.63803356240735</v>
+      </c>
+      <c r="N22">
+        <v>11.1561586602828</v>
+      </c>
+      <c r="O22">
+        <v>30.11031569188474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88016528957319</v>
+        <v>30.05943634305985</v>
       </c>
       <c r="C23">
-        <v>14.34808738005087</v>
+        <v>21.11358843711799</v>
       </c>
       <c r="D23">
-        <v>12.51157879774998</v>
+        <v>3.969766619822737</v>
       </c>
       <c r="E23">
-        <v>9.969062831337595</v>
+        <v>7.395996308525785</v>
       </c>
       <c r="F23">
-        <v>82.24603699672566</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>41.04759359244961</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.585355761199821</v>
       </c>
       <c r="K23">
-        <v>20.95042417246307</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.45766568040933</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.52977364252705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.22221567995627</v>
+      </c>
+      <c r="N23">
+        <v>11.28391115237421</v>
+      </c>
+      <c r="O23">
+        <v>29.67398902571021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.66656183934093</v>
+        <v>27.6299369861701</v>
       </c>
       <c r="C24">
-        <v>13.08707069916577</v>
+        <v>19.40557842838338</v>
       </c>
       <c r="D24">
-        <v>11.70400703746512</v>
+        <v>3.8669225854414</v>
       </c>
       <c r="E24">
-        <v>9.395539241643968</v>
+        <v>7.263212310665408</v>
       </c>
       <c r="F24">
-        <v>75.9022117424765</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>38.67276986030318</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.608609596314436</v>
       </c>
       <c r="K24">
-        <v>19.11575370370335</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.4749885288079</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>16.95278538253409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.59589461584475</v>
+      </c>
+      <c r="N24">
+        <v>11.76915958841288</v>
+      </c>
+      <c r="O24">
+        <v>28.05157682454848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.18572849726283</v>
+        <v>24.83865864460567</v>
       </c>
       <c r="C25">
-        <v>11.69035990219403</v>
+        <v>17.44253025498696</v>
       </c>
       <c r="D25">
-        <v>10.82363496615391</v>
+        <v>3.757558087944062</v>
       </c>
       <c r="E25">
-        <v>8.77977400878218</v>
+        <v>7.133886010235586</v>
       </c>
       <c r="F25">
-        <v>68.86678987438816</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>36.16712260667997</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.644921218986034</v>
       </c>
       <c r="K25">
-        <v>17.06142578930699</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.489696478170091</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.17996928844748</v>
+        <v>16.98406860855933</v>
+      </c>
+      <c r="N25">
+        <v>12.29772511460867</v>
+      </c>
+      <c r="O25">
+        <v>26.36287619903104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.62843725691068</v>
+        <v>26.57160262811638</v>
       </c>
       <c r="C2">
-        <v>15.88677368917502</v>
+        <v>17.54848472915576</v>
       </c>
       <c r="D2">
-        <v>3.678307662025838</v>
+        <v>2.507801606447293</v>
       </c>
       <c r="E2">
-        <v>7.049875164578759</v>
+        <v>5.572644775143585</v>
       </c>
       <c r="F2">
-        <v>34.3710418303474</v>
+        <v>38.83687612849315</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.40352202206855</v>
       </c>
       <c r="J2">
-        <v>5.68037383894147</v>
+        <v>5.423253132595963</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.354055028121685</v>
       </c>
       <c r="M2">
-        <v>15.86215909746197</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.69346324377291</v>
+        <v>13.44911917402355</v>
       </c>
       <c r="O2">
-        <v>25.17120097475837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.03041624552304</v>
+        <v>24.9773900869572</v>
       </c>
       <c r="C3">
-        <v>14.76068929793892</v>
+        <v>16.2914108170656</v>
       </c>
       <c r="D3">
-        <v>3.625407073046143</v>
+        <v>2.419987749603042</v>
       </c>
       <c r="E3">
-        <v>6.999592895577451</v>
+        <v>5.579960064572219</v>
       </c>
       <c r="F3">
-        <v>33.18635448710648</v>
+        <v>37.71568820738142</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.06920929258388</v>
       </c>
       <c r="J3">
-        <v>5.709427579157476</v>
+        <v>5.472181321555677</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.150903675780823</v>
       </c>
       <c r="M3">
-        <v>15.07968355814751</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96674875408218</v>
+        <v>13.73265248203555</v>
       </c>
       <c r="O3">
-        <v>24.39630327015657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.02605889546587</v>
+        <v>23.96576443359079</v>
       </c>
       <c r="C4">
-        <v>14.03303231279437</v>
+        <v>15.49537638375403</v>
       </c>
       <c r="D4">
-        <v>3.593340591965749</v>
+        <v>2.365982094693034</v>
       </c>
       <c r="E4">
-        <v>6.971892664212398</v>
+        <v>5.585273725698311</v>
       </c>
       <c r="F4">
-        <v>32.47607874805416</v>
+        <v>37.05321740600611</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.88694803290155</v>
       </c>
       <c r="J4">
-        <v>5.729624994249765</v>
+        <v>5.503065272506552</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.029090149033749</v>
       </c>
       <c r="M4">
-        <v>14.58949225423431</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.13736727290386</v>
+        <v>13.90941650947211</v>
       </c>
       <c r="O4">
-        <v>23.93698254385433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.62948467493256</v>
+        <v>23.54555365340191</v>
       </c>
       <c r="C5">
-        <v>13.72727853157864</v>
+        <v>15.17414911838157</v>
       </c>
       <c r="D5">
-        <v>3.580381072299501</v>
+        <v>2.343925046855402</v>
       </c>
       <c r="E5">
-        <v>6.961386939244445</v>
+        <v>5.587637999009843</v>
       </c>
       <c r="F5">
-        <v>32.19113684348979</v>
+        <v>36.78981121291</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.81823202071223</v>
       </c>
       <c r="J5">
-        <v>5.738431911367656</v>
+        <v>5.515870250002608</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.980213662750563</v>
       </c>
       <c r="M5">
-        <v>14.38750964753819</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.20764788584214</v>
+        <v>13.98217339821261</v>
       </c>
       <c r="O5">
-        <v>23.754009852599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.56304420588689</v>
+        <v>23.47530683573065</v>
       </c>
       <c r="C6">
-        <v>13.67594780182728</v>
+        <v>15.12033509298413</v>
       </c>
       <c r="D6">
-        <v>3.578235782688273</v>
+        <v>2.340258769727776</v>
       </c>
       <c r="E6">
-        <v>6.959689264757918</v>
+        <v>5.58804238746661</v>
       </c>
       <c r="F6">
-        <v>32.14410029093869</v>
+        <v>36.74646976371296</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.80715063910613</v>
       </c>
       <c r="J6">
-        <v>5.739928634707164</v>
+        <v>5.518009984270559</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.972144744645278</v>
       </c>
       <c r="M6">
-        <v>14.35384362874531</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.21936457954556</v>
+        <v>13.99429982076635</v>
       </c>
       <c r="O6">
-        <v>23.72388314960048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.02075018608584</v>
+        <v>23.96012914016816</v>
       </c>
       <c r="C7">
-        <v>14.02894631985142</v>
+        <v>15.49107604029536</v>
       </c>
       <c r="D7">
-        <v>3.59316537357955</v>
+        <v>2.365684859243619</v>
       </c>
       <c r="E7">
-        <v>6.971747833328878</v>
+        <v>5.585304815377382</v>
       </c>
       <c r="F7">
-        <v>32.47221742804787</v>
+        <v>37.04963842797679</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.88599910991458</v>
       </c>
       <c r="J7">
-        <v>5.729741455174791</v>
+        <v>5.503237066109384</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.028427852981249</v>
       </c>
       <c r="M7">
-        <v>14.58677692700205</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.13831200075022</v>
+        <v>13.91039473590329</v>
       </c>
       <c r="O7">
-        <v>23.93449780339591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.08780987886325</v>
+        <v>26.02885666001043</v>
       </c>
       <c r="C8">
-        <v>15.50594831516828</v>
+        <v>17.12260551052347</v>
       </c>
       <c r="D8">
-        <v>3.659983365990659</v>
+        <v>2.477524196846263</v>
       </c>
       <c r="E8">
-        <v>7.031869825685903</v>
+        <v>5.574991488914579</v>
       </c>
       <c r="F8">
-        <v>33.95911732085728</v>
+        <v>38.44492311585952</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.28333908141168</v>
       </c>
       <c r="J8">
-        <v>5.689891670586767</v>
+        <v>5.439953729887812</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.283418415141991</v>
       </c>
       <c r="M8">
-        <v>15.59450626870509</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.78713332769497</v>
+        <v>13.54635874828602</v>
       </c>
       <c r="O8">
-        <v>24.9006342667182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.80248012375208</v>
+        <v>29.8181842409841</v>
       </c>
       <c r="C9">
-        <v>18.12052037623507</v>
+        <v>20.06156654959213</v>
       </c>
       <c r="D9">
-        <v>3.794198321147867</v>
+        <v>2.697553021492673</v>
       </c>
       <c r="E9">
-        <v>7.175661057656352</v>
+        <v>5.561694973461851</v>
       </c>
       <c r="F9">
-        <v>37.00373646094131</v>
+        <v>41.38638065827885</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.25524487995177</v>
       </c>
       <c r="J9">
-        <v>5.631276858454203</v>
+        <v>5.322150637005304</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.805560987234633</v>
       </c>
       <c r="M9">
-        <v>17.48571195103906</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.11879645269621</v>
+        <v>12.851192115525</v>
       </c>
       <c r="O9">
-        <v>26.92368774187815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.30236314378172</v>
+        <v>32.45650247304154</v>
       </c>
       <c r="C10">
-        <v>19.87833364602526</v>
+        <v>22.05716521043904</v>
       </c>
       <c r="D10">
-        <v>3.894706353902654</v>
+        <v>2.861914259946251</v>
       </c>
       <c r="E10">
-        <v>7.29812125568322</v>
+        <v>5.556812369735915</v>
       </c>
       <c r="F10">
-        <v>39.31286275121458</v>
+        <v>43.67450725415133</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>26.10099777999254</v>
       </c>
       <c r="J10">
-        <v>5.601365978188265</v>
+        <v>5.238850401538038</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.201626488423942</v>
       </c>
       <c r="M10">
-        <v>19.04617838533478</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.63715020163697</v>
+        <v>12.34811868869618</v>
       </c>
       <c r="O10">
-        <v>28.48699190926878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.39253820517222</v>
+        <v>33.6900694485012</v>
       </c>
       <c r="C11">
-        <v>20.64474809112093</v>
+        <v>22.93231618049343</v>
       </c>
       <c r="D11">
-        <v>3.940867997426975</v>
+        <v>2.937882247051464</v>
       </c>
       <c r="E11">
-        <v>7.357727476242096</v>
+        <v>5.555834045096932</v>
       </c>
       <c r="F11">
-        <v>40.3788416708222</v>
+        <v>44.74445387115274</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26.51759803628015</v>
       </c>
       <c r="J11">
-        <v>5.590926128612006</v>
+        <v>5.20151370553246</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.384445562809699</v>
       </c>
       <c r="M11">
-        <v>19.77593985642378</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.41937722758475</v>
+        <v>12.12002936851281</v>
       </c>
       <c r="O11">
-        <v>29.215248982152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.79885130409945</v>
+        <v>34.15082133486678</v>
       </c>
       <c r="C12">
-        <v>20.93039175741279</v>
+        <v>23.25929400821654</v>
       </c>
       <c r="D12">
-        <v>3.958416241299702</v>
+        <v>2.966881997006285</v>
       </c>
       <c r="E12">
-        <v>7.380881614204163</v>
+        <v>5.555660789154633</v>
       </c>
       <c r="F12">
-        <v>40.78480904102734</v>
+        <v>45.15400337933472</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>26.68022794018832</v>
       </c>
       <c r="J12">
-        <v>5.587457430905809</v>
+        <v>5.187441650153057</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.454062259437555</v>
       </c>
       <c r="M12">
-        <v>20.04784926589522</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.33704396319434</v>
+        <v>12.03368820874947</v>
       </c>
       <c r="O12">
-        <v>29.4935643609448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.71162983227146</v>
+        <v>34.05186872030285</v>
       </c>
       <c r="C13">
-        <v>20.86907365509522</v>
+        <v>23.18906541896521</v>
       </c>
       <c r="D13">
-        <v>3.954633795397729</v>
+        <v>2.960624995187034</v>
       </c>
       <c r="E13">
-        <v>7.375868669839561</v>
+        <v>5.555689002351541</v>
       </c>
       <c r="F13">
-        <v>40.69727224914957</v>
+        <v>45.06560036803256</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>26.6449810260544</v>
       </c>
       <c r="J13">
-        <v>5.588182422912731</v>
+        <v>5.190469592199112</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.439051609092692</v>
       </c>
       <c r="M13">
-        <v>19.98948291867297</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.35477096078373</v>
+        <v>12.05228322785195</v>
       </c>
       <c r="O13">
-        <v>29.43350932337808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.42609480344562</v>
+        <v>33.72810176542661</v>
       </c>
       <c r="C14">
-        <v>20.66833877157132</v>
+        <v>22.9593037793406</v>
       </c>
       <c r="D14">
-        <v>3.94231030712132</v>
+        <v>2.940263041524161</v>
       </c>
       <c r="E14">
-        <v>7.359620570970758</v>
+        <v>5.555815721267594</v>
       </c>
       <c r="F14">
-        <v>40.41219398445465</v>
+        <v>44.77805840461051</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>26.5308782742823</v>
       </c>
       <c r="J14">
-        <v>5.590630865034103</v>
+        <v>5.200354738667641</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.390165132324293</v>
       </c>
       <c r="M14">
-        <v>19.79839780544339</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.41260130521165</v>
+        <v>12.11292586732845</v>
       </c>
       <c r="O14">
-        <v>29.23809459170472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.25035619410833</v>
+        <v>33.52896414573173</v>
       </c>
       <c r="C15">
-        <v>20.54479249829699</v>
+        <v>22.81800092784961</v>
       </c>
       <c r="D15">
-        <v>3.934770828085</v>
+        <v>2.927822947914501</v>
       </c>
       <c r="E15">
-        <v>7.349744701926353</v>
+        <v>5.555919627223139</v>
       </c>
       <c r="F15">
-        <v>40.23787883164243</v>
+        <v>44.60250915422924</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>26.46163070745473</v>
       </c>
       <c r="J15">
-        <v>5.59219464312393</v>
+        <v>5.206417913247831</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.360271561211352</v>
       </c>
       <c r="M15">
-        <v>19.6807806756761</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.44803955883262</v>
+        <v>12.15007290766022</v>
       </c>
       <c r="O15">
-        <v>29.11873154874909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23019196149151</v>
+        <v>32.37497820503545</v>
       </c>
       <c r="C16">
-        <v>19.82759445160438</v>
+        <v>21.99933737722461</v>
       </c>
       <c r="D16">
-        <v>3.891698767900666</v>
+        <v>2.856978616504535</v>
       </c>
       <c r="E16">
-        <v>7.294306118245783</v>
+        <v>5.556902824354451</v>
       </c>
       <c r="F16">
-        <v>39.24351540636258</v>
+        <v>43.60518409326507</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>26.07443733308131</v>
       </c>
       <c r="J16">
-        <v>5.60211440354613</v>
+        <v>5.241300526389492</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.18973237720788</v>
       </c>
       <c r="M16">
-        <v>18.99785589460724</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.65140397925064</v>
+        <v>12.36303361485206</v>
       </c>
       <c r="O16">
-        <v>28.43974847397633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.59247690305801</v>
+        <v>31.68747154637573</v>
       </c>
       <c r="C17">
-        <v>19.37924077344119</v>
+        <v>21.48893208446018</v>
       </c>
       <c r="D17">
-        <v>3.865390609855013</v>
+        <v>2.813864860792623</v>
       </c>
       <c r="E17">
-        <v>7.261309718325705</v>
+        <v>5.557836495623008</v>
       </c>
       <c r="F17">
-        <v>38.63751139026447</v>
+        <v>43.00092050425221</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.84526577983366</v>
       </c>
       <c r="J17">
-        <v>5.609030825861767</v>
+        <v>5.262833364261509</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.085790976322631</v>
       </c>
       <c r="M17">
-        <v>18.57080587977385</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.77646111780097</v>
+        <v>12.49381907417071</v>
       </c>
       <c r="O17">
-        <v>28.02763614031494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.22123624908581</v>
+        <v>31.2977907951055</v>
       </c>
       <c r="C18">
-        <v>19.11821949423051</v>
+        <v>21.19226812186796</v>
       </c>
       <c r="D18">
-        <v>3.850299856769663</v>
+        <v>2.789175761632047</v>
       </c>
       <c r="E18">
-        <v>7.242696564878319</v>
+        <v>5.55848921889341</v>
       </c>
       <c r="F18">
-        <v>38.29040842012426</v>
+        <v>42.65608292318871</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.7164326906564</v>
       </c>
       <c r="J18">
-        <v>5.613305116599668</v>
+        <v>5.275271805813326</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.026254718123155</v>
       </c>
       <c r="M18">
-        <v>18.32214535745817</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.84851954500239</v>
+        <v>12.56912005322575</v>
       </c>
       <c r="O18">
-        <v>27.79220201252704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.09477014791978</v>
+        <v>31.16527355816401</v>
       </c>
       <c r="C19">
-        <v>19.02929720233212</v>
+        <v>21.0912839823729</v>
       </c>
       <c r="D19">
-        <v>3.84519733168682</v>
+        <v>2.780833463691164</v>
       </c>
       <c r="E19">
-        <v>7.236456615905936</v>
+        <v>5.558729577711572</v>
       </c>
       <c r="F19">
-        <v>38.1731343273532</v>
+        <v>42.53978898556336</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.67331549023655</v>
       </c>
       <c r="J19">
-        <v>5.614802338509326</v>
+        <v>5.279492795316067</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.006139366872173</v>
       </c>
       <c r="M19">
-        <v>18.23742712249556</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.8729411769415</v>
+        <v>12.59463113374638</v>
       </c>
       <c r="O19">
-        <v>27.71276157541366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.66082095511232</v>
+        <v>31.75931891516171</v>
       </c>
       <c r="C20">
-        <v>19.42729241831375</v>
+        <v>21.54358378721357</v>
       </c>
       <c r="D20">
-        <v>3.868186889604575</v>
+        <v>2.818442729263436</v>
       </c>
       <c r="E20">
-        <v>7.26478426191309</v>
+        <v>5.557725006110021</v>
       </c>
       <c r="F20">
-        <v>38.70187077192961</v>
+        <v>43.06496280226018</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.8693510162801</v>
       </c>
       <c r="J20">
-        <v>5.608263708352959</v>
+        <v>5.260535731583822</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.096830030796061</v>
       </c>
       <c r="M20">
-        <v>18.61657870427789</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.76313565290917</v>
+        <v>12.47988935677214</v>
       </c>
       <c r="O20">
-        <v>28.07133998159435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.51013796003068</v>
+        <v>33.82337050444967</v>
       </c>
       <c r="C21">
-        <v>20.72742212169534</v>
+        <v>23.02690800547318</v>
       </c>
       <c r="D21">
-        <v>3.945928124080097</v>
+        <v>2.946237012031341</v>
       </c>
       <c r="E21">
-        <v>7.364377033422061</v>
+        <v>5.555772985005906</v>
       </c>
       <c r="F21">
-        <v>40.49586488964096</v>
+        <v>44.86239539586757</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>26.56425831717329</v>
       </c>
       <c r="J21">
-        <v>5.589898296408184</v>
+        <v>5.197449541379463</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.404513658398361</v>
       </c>
       <c r="M21">
-        <v>19.85464298857478</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.39561200886435</v>
+        <v>12.09511345209368</v>
       </c>
       <c r="O21">
-        <v>29.29542278342367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.68095253208883</v>
+        <v>35.15293376401761</v>
       </c>
       <c r="C22">
-        <v>21.55053870017838</v>
+        <v>23.9707224183312</v>
       </c>
       <c r="D22">
-        <v>3.997135979210393</v>
+        <v>3.031146969973114</v>
       </c>
       <c r="E22">
-        <v>7.432874408162927</v>
+        <v>5.555657781827625</v>
       </c>
       <c r="F22">
-        <v>41.68186721391081</v>
+        <v>46.06283719404969</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>27.04697919025077</v>
       </c>
       <c r="J22">
-        <v>5.580736217258207</v>
+        <v>5.156599462866626</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.607871010185198</v>
       </c>
       <c r="M22">
-        <v>20.63803356240735</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.1561586602828</v>
+        <v>11.84378284171116</v>
       </c>
       <c r="O22">
-        <v>30.11031569188474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.05943634305985</v>
+        <v>34.44660043992689</v>
       </c>
       <c r="C23">
-        <v>21.11358843711799</v>
+        <v>23.46923470980634</v>
       </c>
       <c r="D23">
-        <v>3.969766619822737</v>
+        <v>2.985679523090269</v>
       </c>
       <c r="E23">
-        <v>7.395996308525785</v>
+        <v>5.555606088868179</v>
       </c>
       <c r="F23">
-        <v>41.04759359244961</v>
+        <v>45.41969408541583</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26.78662450481687</v>
       </c>
       <c r="J23">
-        <v>5.585355761199821</v>
+        <v>5.178372009430764</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.499122414322802</v>
       </c>
       <c r="M23">
-        <v>20.22221567995627</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.28391115237421</v>
+        <v>11.9779367915401</v>
       </c>
       <c r="O23">
-        <v>29.67398902571021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.6299369861701</v>
+        <v>31.72684769444762</v>
       </c>
       <c r="C24">
-        <v>19.40557842838338</v>
+        <v>21.51888581817278</v>
       </c>
       <c r="D24">
-        <v>3.8669225854414</v>
+        <v>2.816372775399506</v>
       </c>
       <c r="E24">
-        <v>7.263212310665408</v>
+        <v>5.557775050731053</v>
       </c>
       <c r="F24">
-        <v>38.67276986030318</v>
+        <v>43.03600131470471</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.85845300515295</v>
       </c>
       <c r="J24">
-        <v>5.608609596314436</v>
+        <v>5.26157430677188</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.091838586102602</v>
       </c>
       <c r="M24">
-        <v>18.59589461584475</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.76915958841288</v>
+        <v>12.48618663144095</v>
       </c>
       <c r="O24">
-        <v>28.05157682454848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.83865864460567</v>
+        <v>28.82239136440406</v>
       </c>
       <c r="C25">
-        <v>17.44253025498696</v>
+        <v>19.29609667336159</v>
       </c>
       <c r="D25">
-        <v>3.757558087944062</v>
+        <v>2.637737634118034</v>
       </c>
       <c r="E25">
-        <v>7.133886010235586</v>
+        <v>5.564488096550306</v>
       </c>
       <c r="F25">
-        <v>36.16712260667997</v>
+        <v>40.56861006739568</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>24.97024047544889</v>
       </c>
       <c r="J25">
-        <v>5.644921218986034</v>
+        <v>5.353402968153017</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.662070367496746</v>
       </c>
       <c r="M25">
-        <v>16.98406860855933</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.29772511460867</v>
+        <v>13.03762111838704</v>
       </c>
       <c r="O25">
-        <v>26.36287619903104</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.57160262811638</v>
+        <v>26.45917141421877</v>
       </c>
       <c r="C2">
-        <v>17.54848472915576</v>
+        <v>12.911434130392</v>
       </c>
       <c r="D2">
-        <v>2.507801606447293</v>
+        <v>4.391986222073093</v>
       </c>
       <c r="E2">
-        <v>5.572644775143585</v>
+        <v>9.749158777423457</v>
       </c>
       <c r="F2">
-        <v>38.83687612849315</v>
+        <v>50.5670354151373</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>24.40352202206855</v>
+        <v>34.96074594669072</v>
       </c>
       <c r="J2">
-        <v>5.423253132595963</v>
+        <v>9.43458328522118</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.354055028121685</v>
+        <v>12.84096026796656</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.44911917402355</v>
+        <v>20.87467228318588</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.9773900869572</v>
+        <v>26.13633795757178</v>
       </c>
       <c r="C3">
-        <v>16.2914108170656</v>
+        <v>12.53158962585921</v>
       </c>
       <c r="D3">
-        <v>2.419987749603042</v>
+        <v>4.373720773786421</v>
       </c>
       <c r="E3">
-        <v>5.579960064572219</v>
+        <v>9.757491529661475</v>
       </c>
       <c r="F3">
-        <v>37.71568820738142</v>
+        <v>50.52868156315164</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>24.06920929258388</v>
+        <v>35.01450159061546</v>
       </c>
       <c r="J3">
-        <v>5.472181321555677</v>
+        <v>9.452025722433971</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.150903675780823</v>
+        <v>12.84170914579773</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.73265248203555</v>
+        <v>20.94969735457067</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.96576443359079</v>
+        <v>25.94309405417679</v>
       </c>
       <c r="C4">
-        <v>15.49537638375403</v>
+        <v>12.2965907506034</v>
       </c>
       <c r="D4">
-        <v>2.365982094693034</v>
+        <v>4.362163248105512</v>
       </c>
       <c r="E4">
-        <v>5.585273725698311</v>
+        <v>9.762969755326878</v>
       </c>
       <c r="F4">
-        <v>37.05321740600611</v>
+        <v>50.51795759874373</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>23.88694803290155</v>
+        <v>35.0552517298282</v>
       </c>
       <c r="J4">
-        <v>5.503065272506552</v>
+        <v>9.463303736571183</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.029090149033749</v>
+        <v>12.84432891059917</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.90941650947211</v>
+        <v>20.99778645518974</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.54555365340191</v>
+        <v>25.86568777793888</v>
       </c>
       <c r="C5">
-        <v>15.17414911838157</v>
+        <v>12.20054596235998</v>
       </c>
       <c r="D5">
-        <v>2.343925046855402</v>
+        <v>4.357366874866108</v>
       </c>
       <c r="E5">
-        <v>5.587637999009843</v>
+        <v>9.765293369496026</v>
       </c>
       <c r="F5">
-        <v>36.78981121291</v>
+        <v>50.51680918569122</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>23.81823202071223</v>
+        <v>35.07379794977528</v>
       </c>
       <c r="J5">
-        <v>5.515870250002608</v>
+        <v>9.468042985702652</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.980213662750563</v>
+        <v>12.84594017774414</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.98217339821261</v>
+        <v>21.01789355760117</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.47530683573065</v>
+        <v>25.85291818287794</v>
       </c>
       <c r="C6">
-        <v>15.12033509298413</v>
+        <v>12.1845858274531</v>
       </c>
       <c r="D6">
-        <v>2.340258769727776</v>
+        <v>4.356565197219108</v>
       </c>
       <c r="E6">
-        <v>5.58804238746661</v>
+        <v>9.765684717443971</v>
       </c>
       <c r="F6">
-        <v>36.74646976371296</v>
+        <v>50.5168129293349</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>23.80715063910613</v>
+        <v>35.07699450221219</v>
       </c>
       <c r="J6">
-        <v>5.518009984270559</v>
+        <v>9.468838607121528</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.972144744645278</v>
+        <v>12.84624057737374</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.99429982076635</v>
+        <v>21.02126320082472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.96012914016816</v>
+        <v>25.94204457405209</v>
       </c>
       <c r="C7">
-        <v>15.49107604029536</v>
+        <v>12.29529636965991</v>
       </c>
       <c r="D7">
-        <v>2.365684859243619</v>
+        <v>4.362098913725326</v>
       </c>
       <c r="E7">
-        <v>5.585304815377382</v>
+        <v>9.76300072289127</v>
       </c>
       <c r="F7">
-        <v>37.04963842797679</v>
+        <v>50.51792907283059</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>23.88599910991458</v>
+        <v>35.05549400472929</v>
       </c>
       <c r="J7">
-        <v>5.503237066109384</v>
+        <v>9.463367070641073</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.028427852981249</v>
+        <v>12.84434843875106</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.91039473590329</v>
+        <v>20.99805555794628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02885666001043</v>
+        <v>26.34688061612836</v>
       </c>
       <c r="C8">
-        <v>17.12260551052347</v>
+        <v>12.78092785368479</v>
       </c>
       <c r="D8">
-        <v>2.477524196846263</v>
+        <v>4.38575908859574</v>
       </c>
       <c r="E8">
-        <v>5.574991488914579</v>
+        <v>9.751956918173866</v>
       </c>
       <c r="F8">
-        <v>38.44492311585952</v>
+        <v>50.55114774592538</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>24.28333908141168</v>
+        <v>34.97766952846975</v>
       </c>
       <c r="J8">
-        <v>5.439953729887812</v>
+        <v>9.440479770867288</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.283418415141991</v>
+        <v>12.84077057065546</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.54635874828602</v>
+        <v>20.90012194028181</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.8181842409841</v>
+        <v>27.17615630022571</v>
       </c>
       <c r="C9">
-        <v>20.06156654959213</v>
+        <v>13.71241667646494</v>
       </c>
       <c r="D9">
-        <v>2.697553021492673</v>
+        <v>4.429461493143265</v>
       </c>
       <c r="E9">
-        <v>5.561694973461851</v>
+        <v>9.733162822080303</v>
       </c>
       <c r="F9">
-        <v>41.38638065827885</v>
+        <v>50.71810602218076</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>25.25524487995177</v>
+        <v>34.88679777846826</v>
       </c>
       <c r="J9">
-        <v>5.322150637005304</v>
+        <v>9.400085652749688</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.805560987234633</v>
+        <v>12.85086184844267</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.851192115525</v>
+        <v>20.72405446489119</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.45650247304154</v>
+        <v>27.80140797251802</v>
       </c>
       <c r="C10">
-        <v>22.05716521043904</v>
+        <v>14.37575874740169</v>
       </c>
       <c r="D10">
-        <v>2.861914259946251</v>
+        <v>4.459958681125061</v>
       </c>
       <c r="E10">
-        <v>5.556812369735915</v>
+        <v>9.721088383441003</v>
       </c>
       <c r="F10">
-        <v>43.67450725415133</v>
+        <v>50.90276927986714</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>26.10099777999254</v>
+        <v>34.85805098449552</v>
       </c>
       <c r="J10">
-        <v>5.238850401538038</v>
+        <v>9.373114147156397</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.201626488423942</v>
+        <v>12.86865429925096</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34811868869618</v>
+        <v>20.60433261798779</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.6900694485012</v>
+        <v>28.0881233586453</v>
       </c>
       <c r="C11">
-        <v>22.93231618049343</v>
+        <v>14.6714271889891</v>
       </c>
       <c r="D11">
-        <v>2.937882247051464</v>
+        <v>4.4734897488278</v>
       </c>
       <c r="E11">
-        <v>5.555834045096932</v>
+        <v>9.715969427790242</v>
       </c>
       <c r="F11">
-        <v>44.74445387115274</v>
+        <v>51.0001732855513</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>26.51759803628015</v>
+        <v>34.8532971450586</v>
       </c>
       <c r="J11">
-        <v>5.20151370553246</v>
+        <v>9.361425346720671</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.384445562809699</v>
+        <v>12.87898710214158</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.12002936851281</v>
+        <v>20.55193731565155</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15082133486678</v>
+        <v>28.1969241904007</v>
       </c>
       <c r="C12">
-        <v>23.25929400821654</v>
+        <v>14.78240060999087</v>
       </c>
       <c r="D12">
-        <v>2.966881997006285</v>
+        <v>4.478564908464571</v>
       </c>
       <c r="E12">
-        <v>5.555660789154633</v>
+        <v>9.71408457712637</v>
       </c>
       <c r="F12">
-        <v>45.15400337933472</v>
+        <v>51.03897447646676</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>26.68022794018832</v>
+        <v>34.85269835654348</v>
       </c>
       <c r="J12">
-        <v>5.187441650153057</v>
+        <v>9.357082118524787</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.454062259437555</v>
+        <v>12.88322013830566</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.03368820874947</v>
+        <v>20.53239209602322</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05186872030285</v>
+        <v>28.17348343299082</v>
       </c>
       <c r="C13">
-        <v>23.18906541896521</v>
+        <v>14.75854622074576</v>
       </c>
       <c r="D13">
-        <v>2.960624995187034</v>
+        <v>4.477474043527016</v>
       </c>
       <c r="E13">
-        <v>5.555689002351541</v>
+        <v>9.714488132677733</v>
       </c>
       <c r="F13">
-        <v>45.06560036803256</v>
+        <v>51.03053290636326</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>26.6449810260544</v>
+        <v>34.85277381948808</v>
       </c>
       <c r="J13">
-        <v>5.190469592199112</v>
+        <v>9.358013822874538</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.439051609092692</v>
+        <v>12.88229426582746</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.05228322785195</v>
+        <v>20.5365883784639</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.72810176542661</v>
+        <v>28.09707047140583</v>
       </c>
       <c r="C14">
-        <v>22.9593037793406</v>
+        <v>14.68057749099452</v>
       </c>
       <c r="D14">
-        <v>2.940263041524161</v>
+        <v>4.473908259931508</v>
       </c>
       <c r="E14">
-        <v>5.555815721267594</v>
+        <v>9.715813286939518</v>
       </c>
       <c r="F14">
-        <v>44.77805840461051</v>
+        <v>51.00332714412053</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>26.5308782742823</v>
+        <v>34.85322378128879</v>
       </c>
       <c r="J14">
-        <v>5.200354738667641</v>
+        <v>9.361066364411791</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.390165132324293</v>
+        <v>12.87932894939872</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.11292586732845</v>
+        <v>20.55032339979959</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.52896414573173</v>
+        <v>28.05029204877494</v>
       </c>
       <c r="C15">
-        <v>22.81800092784961</v>
+        <v>14.63268729129243</v>
       </c>
       <c r="D15">
-        <v>2.927822947914501</v>
+        <v>4.471717777719594</v>
       </c>
       <c r="E15">
-        <v>5.555919627223139</v>
+        <v>9.716631956063472</v>
       </c>
       <c r="F15">
-        <v>44.60250915422924</v>
+        <v>50.98691204843453</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>26.46163070745473</v>
+        <v>34.85365597461587</v>
       </c>
       <c r="J15">
-        <v>5.206417913247831</v>
+        <v>9.362946939188934</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.360271561211352</v>
+        <v>12.87755425560843</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15007290766022</v>
+        <v>20.55877496865298</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.37497820503545</v>
+        <v>27.782707793034</v>
       </c>
       <c r="C16">
-        <v>21.99933737722461</v>
+        <v>14.35630357535201</v>
       </c>
       <c r="D16">
-        <v>2.856978616504535</v>
+        <v>4.459067545798236</v>
       </c>
       <c r="E16">
-        <v>5.556902824354451</v>
+        <v>9.721430426579122</v>
       </c>
       <c r="F16">
-        <v>43.60518409326507</v>
+        <v>50.89667250003298</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>26.07443733308131</v>
+        <v>34.85852954502899</v>
       </c>
       <c r="J16">
-        <v>5.241300526389492</v>
+        <v>9.373889685281391</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.18973237720788</v>
+        <v>12.86802393658912</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.36303361485206</v>
+        <v>20.60779823820613</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68747154637573</v>
+        <v>27.6190667517188</v>
       </c>
       <c r="C17">
-        <v>21.48893208446018</v>
+        <v>14.18510675610438</v>
       </c>
       <c r="D17">
-        <v>2.813864860792623</v>
+        <v>4.451219701717309</v>
       </c>
       <c r="E17">
-        <v>5.557836495623008</v>
+        <v>9.724469748198802</v>
       </c>
       <c r="F17">
-        <v>43.00092050425221</v>
+        <v>50.84473882236504</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>25.84526577983366</v>
+        <v>34.86365452496313</v>
       </c>
       <c r="J17">
-        <v>5.262833364261509</v>
+        <v>9.380751120683719</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.085790976322631</v>
+        <v>12.86274967831302</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.49381907417071</v>
+        <v>20.63840073544576</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.2977907951055</v>
+        <v>27.52516580555331</v>
       </c>
       <c r="C18">
-        <v>21.19226812186796</v>
+        <v>14.08607184114661</v>
       </c>
       <c r="D18">
-        <v>2.789175761632047</v>
+        <v>4.446673587546248</v>
       </c>
       <c r="E18">
-        <v>5.55848921889341</v>
+        <v>9.726253075709987</v>
       </c>
       <c r="F18">
-        <v>42.65608292318871</v>
+        <v>50.81612998235783</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>25.7164326906564</v>
+        <v>34.86738547070256</v>
       </c>
       <c r="J18">
-        <v>5.275271805813326</v>
+        <v>9.384752318254378</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.026254718123155</v>
+        <v>12.85992692025499</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.56912005322575</v>
+        <v>20.65619710242613</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.16527355816401</v>
+        <v>27.49341361576404</v>
       </c>
       <c r="C19">
-        <v>21.0912839823729</v>
+        <v>14.05244659343968</v>
       </c>
       <c r="D19">
-        <v>2.780833463691164</v>
+        <v>4.445128799998725</v>
       </c>
       <c r="E19">
-        <v>5.558729577711572</v>
+        <v>9.726862928648236</v>
       </c>
       <c r="F19">
-        <v>42.53978898556336</v>
+        <v>50.80666055396026</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>25.67331549023655</v>
+        <v>34.8687830702373</v>
       </c>
       <c r="J19">
-        <v>5.279492795316067</v>
+        <v>9.386116459822762</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.006139366872173</v>
+        <v>12.85900744658431</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.59463113374638</v>
+        <v>20.66225611715946</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75931891516171</v>
+        <v>27.6364644759</v>
       </c>
       <c r="C20">
-        <v>21.54358378721357</v>
+        <v>14.20339049778677</v>
       </c>
       <c r="D20">
-        <v>2.818442729263436</v>
+        <v>4.452058451728838</v>
       </c>
       <c r="E20">
-        <v>5.557725006110021</v>
+        <v>9.724142566356536</v>
       </c>
       <c r="F20">
-        <v>43.06496280226018</v>
+        <v>50.85013670267138</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>25.8693510162801</v>
+        <v>34.86302786979218</v>
       </c>
       <c r="J20">
-        <v>5.260535731583822</v>
+        <v>9.380015053002579</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.096830030796061</v>
+        <v>12.8632893211571</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.47988935677214</v>
+        <v>20.63512291553068</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.82337050444967</v>
+        <v>28.11950941885348</v>
       </c>
       <c r="C21">
-        <v>23.02690800547318</v>
+        <v>14.70350651508582</v>
       </c>
       <c r="D21">
-        <v>2.946237012031341</v>
+        <v>4.47495693678631</v>
       </c>
       <c r="E21">
-        <v>5.555772985005906</v>
+        <v>9.715422603943608</v>
       </c>
       <c r="F21">
-        <v>44.86239539586757</v>
+        <v>51.01126622108488</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>26.56425831717329</v>
+        <v>34.85305897859917</v>
       </c>
       <c r="J21">
-        <v>5.197449541379463</v>
+        <v>9.360167507995465</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.404513658398361</v>
+        <v>12.88019125866601</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.09511345209368</v>
+        <v>20.5462810761944</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15293376401761</v>
+        <v>28.4364903492973</v>
       </c>
       <c r="C22">
-        <v>23.9707224183312</v>
+        <v>15.02454666735179</v>
       </c>
       <c r="D22">
-        <v>3.031146969973114</v>
+        <v>4.489638407943154</v>
       </c>
       <c r="E22">
-        <v>5.555657781827625</v>
+        <v>9.710035877064289</v>
       </c>
       <c r="F22">
-        <v>46.06283719404969</v>
+        <v>51.12773734243503</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>27.04697919025077</v>
+        <v>34.853547956109</v>
       </c>
       <c r="J22">
-        <v>5.156599462866626</v>
+        <v>9.347679968060211</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.607871010185198</v>
+        <v>12.89310323051219</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84378284171116</v>
+        <v>20.48994095713617</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.44660043992689</v>
+        <v>28.26722707845249</v>
       </c>
       <c r="C23">
-        <v>23.46923470980634</v>
+        <v>14.85376841875835</v>
       </c>
       <c r="D23">
-        <v>2.985679523090269</v>
+        <v>4.48182846796245</v>
       </c>
       <c r="E23">
-        <v>5.555606088868179</v>
+        <v>9.71288235370899</v>
       </c>
       <c r="F23">
-        <v>45.41969408541583</v>
+        <v>51.06455714276804</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>26.78662450481687</v>
+        <v>34.85264477363728</v>
       </c>
       <c r="J23">
-        <v>5.178372009430764</v>
+        <v>9.354300661518684</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.499122414322802</v>
+        <v>12.8860417944705</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.9779367915401</v>
+        <v>20.51985354667939</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72684769444762</v>
+        <v>27.62859840125619</v>
       </c>
       <c r="C24">
-        <v>21.51888581817278</v>
+        <v>14.19512631433413</v>
       </c>
       <c r="D24">
-        <v>2.816372775399506</v>
+        <v>4.451679359669735</v>
       </c>
       <c r="E24">
-        <v>5.557775050731053</v>
+        <v>9.724290373182304</v>
       </c>
       <c r="F24">
-        <v>43.03600131470471</v>
+        <v>50.84769243135194</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>25.85845300515295</v>
+        <v>34.86330873732074</v>
       </c>
       <c r="J24">
-        <v>5.26157430677188</v>
+        <v>9.380347653286584</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.091838586102602</v>
+        <v>12.86304469600534</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.48618663144095</v>
+        <v>20.6366041868014</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.82239136440406</v>
+        <v>26.94860057769157</v>
       </c>
       <c r="C25">
-        <v>19.29609667336159</v>
+        <v>13.46355644556004</v>
       </c>
       <c r="D25">
-        <v>2.637737634118034</v>
+        <v>4.417924044896679</v>
       </c>
       <c r="E25">
-        <v>5.564488096550306</v>
+        <v>9.737941859395388</v>
       </c>
       <c r="F25">
-        <v>40.56861006739568</v>
+        <v>50.66203660410905</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>24.97024047544889</v>
+        <v>34.90472982267066</v>
       </c>
       <c r="J25">
-        <v>5.353402968153017</v>
+        <v>9.410535975687115</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.662070367496746</v>
+        <v>12.84630481507732</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03762111838704</v>
+        <v>20.76998570992131</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.45917141421877</v>
+        <v>26.57160262811639</v>
       </c>
       <c r="C2">
-        <v>12.911434130392</v>
+        <v>17.54848472915573</v>
       </c>
       <c r="D2">
-        <v>4.391986222073093</v>
+        <v>2.507801606447226</v>
       </c>
       <c r="E2">
-        <v>9.749158777423457</v>
+        <v>5.572644775143583</v>
       </c>
       <c r="F2">
-        <v>50.5670354151373</v>
+        <v>38.83687612849336</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>34.96074594669072</v>
+        <v>24.40352202206873</v>
       </c>
       <c r="J2">
-        <v>9.43458328522118</v>
+        <v>5.423253132595994</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.84096026796656</v>
+        <v>8.354055028121691</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.87467228318588</v>
+        <v>13.44911917402368</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.13633795757178</v>
+        <v>24.97739008695723</v>
       </c>
       <c r="C3">
-        <v>12.53158962585921</v>
+        <v>16.29141081706559</v>
       </c>
       <c r="D3">
-        <v>4.373720773786421</v>
+        <v>2.419987749603177</v>
       </c>
       <c r="E3">
-        <v>9.757491529661475</v>
+        <v>5.579960064572353</v>
       </c>
       <c r="F3">
-        <v>50.52868156315164</v>
+        <v>37.71568820738149</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>35.01450159061546</v>
+        <v>24.06920929258392</v>
       </c>
       <c r="J3">
-        <v>9.452025722433971</v>
+        <v>5.472181321555744</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.84170914579773</v>
+        <v>8.150903675780905</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.94969735457067</v>
+        <v>13.73265248203561</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.94309405417679</v>
+        <v>23.96576443359085</v>
       </c>
       <c r="C4">
-        <v>12.2965907506034</v>
+        <v>15.49537638375406</v>
       </c>
       <c r="D4">
-        <v>4.362163248105512</v>
+        <v>2.365982094692968</v>
       </c>
       <c r="E4">
-        <v>9.762969755326878</v>
+        <v>5.585273725698311</v>
       </c>
       <c r="F4">
-        <v>50.51795759874373</v>
+        <v>37.05321740600628</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>35.0552517298282</v>
+        <v>23.88694803290171</v>
       </c>
       <c r="J4">
-        <v>9.463303736571183</v>
+        <v>5.503065272506516</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.84432891059917</v>
+        <v>8.029090149033745</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.99778645518974</v>
+        <v>13.90941650947217</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.86568777793888</v>
+        <v>23.54555365340183</v>
       </c>
       <c r="C5">
-        <v>12.20054596235998</v>
+        <v>15.17414911838158</v>
       </c>
       <c r="D5">
-        <v>4.357366874866108</v>
+        <v>2.343925046855539</v>
       </c>
       <c r="E5">
-        <v>9.765293369496026</v>
+        <v>5.587637999009912</v>
       </c>
       <c r="F5">
-        <v>50.51680918569122</v>
+        <v>36.78981121290947</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>35.07379794977528</v>
+        <v>23.81823202071176</v>
       </c>
       <c r="J5">
-        <v>9.468042985702652</v>
+        <v>5.515870250002507</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.84594017774414</v>
+        <v>7.980213662750509</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.01789355760117</v>
+        <v>13.98217339821242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.85291818287794</v>
+        <v>23.47530683573063</v>
       </c>
       <c r="C6">
-        <v>12.1845858274531</v>
+        <v>15.12033509298419</v>
       </c>
       <c r="D6">
-        <v>4.356565197219108</v>
+        <v>2.340258769727776</v>
       </c>
       <c r="E6">
-        <v>9.765684717443971</v>
+        <v>5.588042387466541</v>
       </c>
       <c r="F6">
-        <v>50.5168129293349</v>
+        <v>36.74646976371292</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>35.07699450221219</v>
+        <v>23.80715063910605</v>
       </c>
       <c r="J6">
-        <v>9.468838607121528</v>
+        <v>5.518009984270527</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.84624057737374</v>
+        <v>7.972144744645275</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.02126320082472</v>
+        <v>13.99429982076626</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.94204457405209</v>
+        <v>23.96012914016814</v>
       </c>
       <c r="C7">
-        <v>12.29529636965991</v>
+        <v>15.49107604029538</v>
       </c>
       <c r="D7">
-        <v>4.362098913725326</v>
+        <v>2.365684859243557</v>
       </c>
       <c r="E7">
-        <v>9.76300072289127</v>
+        <v>5.585304815377317</v>
       </c>
       <c r="F7">
-        <v>50.51792907283059</v>
+        <v>37.04963842797659</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>35.05549400472929</v>
+        <v>23.88599910991447</v>
       </c>
       <c r="J7">
-        <v>9.463367070641073</v>
+        <v>5.50323706610932</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.84434843875106</v>
+        <v>8.028427852981141</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.99805555794628</v>
+        <v>13.91039473590326</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.34688061612836</v>
+        <v>26.02885666001043</v>
       </c>
       <c r="C8">
-        <v>12.78092785368479</v>
+        <v>17.12260551052348</v>
       </c>
       <c r="D8">
-        <v>4.38575908859574</v>
+        <v>2.477524196846398</v>
       </c>
       <c r="E8">
-        <v>9.751956918173866</v>
+        <v>5.574991488914643</v>
       </c>
       <c r="F8">
-        <v>50.55114774592538</v>
+        <v>38.44492311585948</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>34.97766952846975</v>
+        <v>24.28333908141165</v>
       </c>
       <c r="J8">
-        <v>9.440479770867288</v>
+        <v>5.439953729887812</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.84077057065546</v>
+        <v>8.283418415142036</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.90012194028181</v>
+        <v>13.54635874828599</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.17615630022571</v>
+        <v>29.81818424098414</v>
       </c>
       <c r="C9">
-        <v>13.71241667646494</v>
+        <v>20.06156654959221</v>
       </c>
       <c r="D9">
-        <v>4.429461493143265</v>
+        <v>2.69755302149267</v>
       </c>
       <c r="E9">
-        <v>9.733162822080303</v>
+        <v>5.561694973461851</v>
       </c>
       <c r="F9">
-        <v>50.71810602218076</v>
+        <v>41.38638065827881</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>34.88679777846826</v>
+        <v>25.25524487995168</v>
       </c>
       <c r="J9">
-        <v>9.400085652749688</v>
+        <v>5.322150637005307</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85086184844267</v>
+        <v>8.805560987234582</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.72405446489119</v>
+        <v>12.85119211552487</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.80140797251802</v>
+        <v>32.45650247304165</v>
       </c>
       <c r="C10">
-        <v>14.37575874740169</v>
+        <v>22.05716521043911</v>
       </c>
       <c r="D10">
-        <v>4.459958681125061</v>
+        <v>2.861914259946319</v>
       </c>
       <c r="E10">
-        <v>9.721088383441003</v>
+        <v>5.556812369735852</v>
       </c>
       <c r="F10">
-        <v>50.90276927986714</v>
+        <v>43.67450725415127</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>34.85805098449552</v>
+        <v>26.10099777999245</v>
       </c>
       <c r="J10">
-        <v>9.373114147156397</v>
+        <v>5.238850401537912</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.86865429925096</v>
+        <v>9.201626488423868</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.60433261798779</v>
+        <v>12.34811868869606</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.0881233586453</v>
+        <v>33.69006944850118</v>
       </c>
       <c r="C11">
-        <v>14.6714271889891</v>
+        <v>22.93231618049337</v>
       </c>
       <c r="D11">
-        <v>4.4734897488278</v>
+        <v>2.937882247051599</v>
       </c>
       <c r="E11">
-        <v>9.715969427790242</v>
+        <v>5.555834045097066</v>
       </c>
       <c r="F11">
-        <v>51.0001732855513</v>
+        <v>44.74445387115276</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>34.8532971450586</v>
+        <v>26.51759803628018</v>
       </c>
       <c r="J11">
-        <v>9.361425346720671</v>
+        <v>5.20151370553243</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.87898710214158</v>
+        <v>9.38444556280974</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.55193731565155</v>
+        <v>12.12002936851284</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.1969241904007</v>
+        <v>34.15082133486686</v>
       </c>
       <c r="C12">
-        <v>14.78240060999087</v>
+        <v>23.25929400821673</v>
       </c>
       <c r="D12">
-        <v>4.478564908464571</v>
+        <v>2.966881997006101</v>
       </c>
       <c r="E12">
-        <v>9.71408457712637</v>
+        <v>5.55566078915456</v>
       </c>
       <c r="F12">
-        <v>51.03897447646676</v>
+        <v>45.15400337933472</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>34.85269835654348</v>
+        <v>26.68022794018832</v>
       </c>
       <c r="J12">
-        <v>9.357082118524787</v>
+        <v>5.187441650153154</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.88322013830566</v>
+        <v>9.454062259437524</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.53239209602322</v>
+        <v>12.03368820874945</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.17348343299082</v>
+        <v>34.05186872030291</v>
       </c>
       <c r="C13">
-        <v>14.75854622074576</v>
+        <v>23.18906541896528</v>
       </c>
       <c r="D13">
-        <v>4.477474043527016</v>
+        <v>2.960624995186903</v>
       </c>
       <c r="E13">
-        <v>9.714488132677733</v>
+        <v>5.555689002351541</v>
       </c>
       <c r="F13">
-        <v>51.03053290636326</v>
+        <v>45.06560036803258</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>34.85277381948808</v>
+        <v>26.64498102605442</v>
       </c>
       <c r="J13">
-        <v>9.358013822874538</v>
+        <v>5.190469592199113</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.88229426582746</v>
+        <v>9.439051609092662</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.5365883784639</v>
+        <v>12.0522832278519</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.09707047140583</v>
+        <v>33.72810176542668</v>
       </c>
       <c r="C14">
-        <v>14.68057749099452</v>
+        <v>22.95930377934075</v>
       </c>
       <c r="D14">
-        <v>4.473908259931508</v>
+        <v>2.940263041524296</v>
       </c>
       <c r="E14">
-        <v>9.715813286939518</v>
+        <v>5.555815721267727</v>
       </c>
       <c r="F14">
-        <v>51.00332714412053</v>
+        <v>44.77805840461053</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>34.85322378128879</v>
+        <v>26.53087827428227</v>
       </c>
       <c r="J14">
-        <v>9.361066364411791</v>
+        <v>5.200354738667672</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.87932894939872</v>
+        <v>9.390165132324309</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.55032339979959</v>
+        <v>12.11292586732836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.05029204877494</v>
+        <v>33.52896414573176</v>
       </c>
       <c r="C15">
-        <v>14.63268729129243</v>
+        <v>22.81800092784971</v>
       </c>
       <c r="D15">
-        <v>4.471717777719594</v>
+        <v>2.927822947914369</v>
       </c>
       <c r="E15">
-        <v>9.716631956063472</v>
+        <v>5.555919627223138</v>
       </c>
       <c r="F15">
-        <v>50.98691204843453</v>
+        <v>44.60250915422914</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>34.85365597461587</v>
+        <v>26.46163070745463</v>
       </c>
       <c r="J15">
-        <v>9.362946939188934</v>
+        <v>5.206417913247831</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.87755425560843</v>
+        <v>9.360271561211347</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.55877496865298</v>
+        <v>12.15007290766016</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.782707793034</v>
+        <v>32.37497820503551</v>
       </c>
       <c r="C16">
-        <v>14.35630357535201</v>
+        <v>21.99933737722477</v>
       </c>
       <c r="D16">
-        <v>4.459067545798236</v>
+        <v>2.856978616504473</v>
       </c>
       <c r="E16">
-        <v>9.721430426579122</v>
+        <v>5.556902824354519</v>
       </c>
       <c r="F16">
-        <v>50.89667250003298</v>
+        <v>43.60518409326507</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>34.85852954502899</v>
+        <v>26.07443733308132</v>
       </c>
       <c r="J16">
-        <v>9.373889685281391</v>
+        <v>5.241300526389493</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.86802393658912</v>
+        <v>9.189732377207841</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.60779823820613</v>
+        <v>12.36303361485206</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.6190667517188</v>
+        <v>31.68747154637578</v>
       </c>
       <c r="C17">
-        <v>14.18510675610438</v>
+        <v>21.48893208446022</v>
       </c>
       <c r="D17">
-        <v>4.451219701717309</v>
+        <v>2.813864860792563</v>
       </c>
       <c r="E17">
-        <v>9.724469748198802</v>
+        <v>5.557836495622875</v>
       </c>
       <c r="F17">
-        <v>50.84473882236504</v>
+        <v>43.00092050425215</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>34.86365452496313</v>
+        <v>25.84526577983357</v>
       </c>
       <c r="J17">
-        <v>9.380751120683719</v>
+        <v>5.262833364261414</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.86274967831302</v>
+        <v>9.085790976322578</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.63840073544576</v>
+        <v>12.49381907417055</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52516580555331</v>
+        <v>31.29779079510558</v>
       </c>
       <c r="C18">
-        <v>14.08607184114661</v>
+        <v>21.19226812186796</v>
       </c>
       <c r="D18">
-        <v>4.446673587546248</v>
+        <v>2.789175761631848</v>
       </c>
       <c r="E18">
-        <v>9.726253075709987</v>
+        <v>5.55848921889341</v>
       </c>
       <c r="F18">
-        <v>50.81612998235783</v>
+        <v>42.65608292318873</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>34.86738547070256</v>
+        <v>25.71643269065637</v>
       </c>
       <c r="J18">
-        <v>9.384752318254378</v>
+        <v>5.275271805813324</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.85992692025499</v>
+        <v>9.026254718123175</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.65619710242613</v>
+        <v>12.56912005322573</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.49341361576404</v>
+        <v>31.16527355816402</v>
       </c>
       <c r="C19">
-        <v>14.05244659343968</v>
+        <v>21.09128398237283</v>
       </c>
       <c r="D19">
-        <v>4.445128799998725</v>
+        <v>2.780833463691027</v>
       </c>
       <c r="E19">
-        <v>9.726862928648236</v>
+        <v>5.558729577711575</v>
       </c>
       <c r="F19">
-        <v>50.80666055396026</v>
+        <v>42.53978898556343</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>34.8687830702373</v>
+        <v>25.67331549023661</v>
       </c>
       <c r="J19">
-        <v>9.386116459822762</v>
+        <v>5.279492795316133</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.85900744658431</v>
+        <v>9.006139366872198</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.66225611715946</v>
+        <v>12.59463113374642</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.6364644759</v>
+        <v>31.75931891516173</v>
       </c>
       <c r="C20">
-        <v>14.20339049778677</v>
+        <v>21.54358378721364</v>
       </c>
       <c r="D20">
-        <v>4.452058451728838</v>
+        <v>2.818442729263379</v>
       </c>
       <c r="E20">
-        <v>9.724142566356536</v>
+        <v>5.557725006109955</v>
       </c>
       <c r="F20">
-        <v>50.85013670267138</v>
+        <v>43.06496280226013</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>34.86302786979218</v>
+        <v>25.86935101628005</v>
       </c>
       <c r="J20">
-        <v>9.380015053002579</v>
+        <v>5.260535731583792</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.8632893211571</v>
+        <v>9.096830030796033</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.63512291553068</v>
+        <v>12.47988935677208</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11950941885348</v>
+        <v>33.82337050444978</v>
       </c>
       <c r="C21">
-        <v>14.70350651508582</v>
+        <v>23.02690800547328</v>
       </c>
       <c r="D21">
-        <v>4.47495693678631</v>
+        <v>2.946237012031337</v>
       </c>
       <c r="E21">
-        <v>9.715422603943608</v>
+        <v>5.555772985005846</v>
       </c>
       <c r="F21">
-        <v>51.01126622108488</v>
+        <v>44.86239539586753</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>34.85305897859917</v>
+        <v>26.56425831717323</v>
       </c>
       <c r="J21">
-        <v>9.360167507995465</v>
+        <v>5.197449541379436</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.88019125866601</v>
+        <v>9.404513658398322</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.5462810761944</v>
+        <v>12.09511345209356</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.4364903492973</v>
+        <v>35.15293376401772</v>
       </c>
       <c r="C22">
-        <v>15.02454666735179</v>
+        <v>23.97072241833127</v>
       </c>
       <c r="D22">
-        <v>4.489638407943154</v>
+        <v>3.031146969973113</v>
       </c>
       <c r="E22">
-        <v>9.710035877064289</v>
+        <v>5.555657781827629</v>
       </c>
       <c r="F22">
-        <v>51.12773734243503</v>
+        <v>46.06283719404972</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>34.853547956109</v>
+        <v>27.04697919025071</v>
       </c>
       <c r="J22">
-        <v>9.347679968060211</v>
+        <v>5.156599462866533</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.89310323051219</v>
+        <v>9.607871010185177</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.48994095713617</v>
+        <v>11.84378284171101</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.26722707845249</v>
+        <v>34.44660043992697</v>
       </c>
       <c r="C23">
-        <v>14.85376841875835</v>
+        <v>23.46923470980635</v>
       </c>
       <c r="D23">
-        <v>4.48182846796245</v>
+        <v>2.98567952309007</v>
       </c>
       <c r="E23">
-        <v>9.71288235370899</v>
+        <v>5.555606088867978</v>
       </c>
       <c r="F23">
-        <v>51.06455714276804</v>
+        <v>45.41969408541576</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>34.85264477363728</v>
+        <v>26.78662450481677</v>
       </c>
       <c r="J23">
-        <v>9.354300661518684</v>
+        <v>5.1783720094307</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.8860417944705</v>
+        <v>9.499122414322724</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.51985354667939</v>
+        <v>11.97793679154003</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.62859840125619</v>
+        <v>31.72684769444768</v>
       </c>
       <c r="C24">
-        <v>14.19512631433413</v>
+        <v>21.51888581817272</v>
       </c>
       <c r="D24">
-        <v>4.451679359669735</v>
+        <v>2.816372775399249</v>
       </c>
       <c r="E24">
-        <v>9.724290373182304</v>
+        <v>5.557775050730789</v>
       </c>
       <c r="F24">
-        <v>50.84769243135194</v>
+        <v>43.03600131470464</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>34.86330873732074</v>
+        <v>25.85845300515287</v>
       </c>
       <c r="J24">
-        <v>9.380347653286584</v>
+        <v>5.261574306771849</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.86304469600534</v>
+        <v>9.091838586102551</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.6366041868014</v>
+        <v>12.48618663144086</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94860057769157</v>
+        <v>28.82239136440408</v>
       </c>
       <c r="C25">
-        <v>13.46355644556004</v>
+        <v>19.29609667336151</v>
       </c>
       <c r="D25">
-        <v>4.417924044896679</v>
+        <v>2.637737634117698</v>
       </c>
       <c r="E25">
-        <v>9.737941859395388</v>
+        <v>5.564488096550242</v>
       </c>
       <c r="F25">
-        <v>50.66203660410905</v>
+        <v>40.56861006739579</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>34.90472982267066</v>
+        <v>24.97024047544895</v>
       </c>
       <c r="J25">
-        <v>9.410535975687115</v>
+        <v>5.353402968153049</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.84630481507732</v>
+        <v>8.66207036749673</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.76998570992131</v>
+        <v>13.03762111838711</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.57160262811639</v>
+        <v>18.12071511647874</v>
       </c>
       <c r="C2">
-        <v>17.54848472915573</v>
+        <v>13.77884795505132</v>
       </c>
       <c r="D2">
-        <v>2.507801606447226</v>
+        <v>6.576227587015275</v>
       </c>
       <c r="E2">
-        <v>5.572644775143583</v>
+        <v>9.69922937666988</v>
       </c>
       <c r="F2">
-        <v>38.83687612849336</v>
+        <v>23.47550066002935</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>1.666140677809799</v>
+      </c>
+      <c r="I2">
+        <v>2.724098533901272</v>
+      </c>
+      <c r="J2">
         <v>4.251792669784106</v>
       </c>
-      <c r="I2">
-        <v>24.40352202206873</v>
-      </c>
-      <c r="J2">
-        <v>5.423253132595994</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.9069532330149</v>
       </c>
       <c r="L2">
-        <v>8.354055028121691</v>
+        <v>6.518787686301398</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.44911917402368</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.55912940667645</v>
+      </c>
+      <c r="P2">
+        <v>12.39180326781487</v>
+      </c>
+      <c r="Q2">
+        <v>16.5471418339904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.97739008695723</v>
+        <v>16.92774261012593</v>
       </c>
       <c r="C3">
-        <v>16.29141081706559</v>
+        <v>12.9136096460947</v>
       </c>
       <c r="D3">
-        <v>2.419987749603177</v>
+        <v>6.366867359779836</v>
       </c>
       <c r="E3">
-        <v>5.579960064572353</v>
+        <v>9.442730251043308</v>
       </c>
       <c r="F3">
-        <v>37.71568820738149</v>
+        <v>22.90550387630963</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.885055691416299</v>
       </c>
       <c r="I3">
-        <v>24.06920929258392</v>
+        <v>2.574759202553574</v>
       </c>
       <c r="J3">
-        <v>5.472181321555744</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.94406383364977</v>
       </c>
       <c r="L3">
-        <v>8.150903675780905</v>
+        <v>6.432850283290242</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.73265248203561</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.809775157174</v>
+      </c>
+      <c r="P3">
+        <v>12.48409493843649</v>
+      </c>
+      <c r="Q3">
+        <v>16.28265298251564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.96576443359085</v>
+        <v>16.14801743866616</v>
       </c>
       <c r="C4">
-        <v>15.49537638375406</v>
+        <v>12.35538084205353</v>
       </c>
       <c r="D4">
-        <v>2.365982094692968</v>
+        <v>6.235782238614326</v>
       </c>
       <c r="E4">
-        <v>5.585273725698311</v>
+        <v>9.281180032070788</v>
       </c>
       <c r="F4">
-        <v>37.05321740600628</v>
+        <v>22.55622684863171</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.024453417265757</v>
       </c>
       <c r="I4">
-        <v>23.88694803290171</v>
+        <v>2.480422664158762</v>
       </c>
       <c r="J4">
-        <v>5.503065272506516</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.97142157675143</v>
       </c>
       <c r="L4">
-        <v>8.029090149033745</v>
+        <v>6.378571228080944</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.90941650947217</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.32922108149374</v>
+      </c>
+      <c r="P4">
+        <v>12.54315172590763</v>
+      </c>
+      <c r="Q4">
+        <v>16.12440532883521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.54555365340183</v>
+        <v>15.81290802727333</v>
       </c>
       <c r="C5">
-        <v>15.17414911838158</v>
+        <v>12.13034096798165</v>
       </c>
       <c r="D5">
-        <v>2.343925046855539</v>
+        <v>6.183150235739156</v>
       </c>
       <c r="E5">
-        <v>5.587637999009912</v>
+        <v>9.21466728330128</v>
       </c>
       <c r="F5">
-        <v>36.78981121290947</v>
+        <v>22.40732534470277</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.082755348196651</v>
       </c>
       <c r="I5">
-        <v>23.81823202071176</v>
+        <v>2.507403389264217</v>
       </c>
       <c r="J5">
-        <v>5.515870250002507</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.97867374562511</v>
       </c>
       <c r="L5">
-        <v>7.980213662750509</v>
+        <v>6.355827375970685</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.98217339821242</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.12864177863644</v>
+      </c>
+      <c r="P5">
+        <v>12.56838891034906</v>
+      </c>
+      <c r="Q5">
+        <v>16.0554953798535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.47530683573063</v>
+        <v>15.74988936116761</v>
       </c>
       <c r="C6">
-        <v>15.12033509298419</v>
+        <v>12.10382686960018</v>
       </c>
       <c r="D6">
-        <v>2.340258769727776</v>
+        <v>6.176051088249277</v>
       </c>
       <c r="E6">
-        <v>5.588042387466541</v>
+        <v>9.20393211516347</v>
       </c>
       <c r="F6">
-        <v>36.74646976371292</v>
+        <v>22.37417749564084</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.092789386504898</v>
       </c>
       <c r="I6">
-        <v>23.80715063910605</v>
+        <v>2.519057444798724</v>
       </c>
       <c r="J6">
-        <v>5.518009984270527</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.97382605056337</v>
       </c>
       <c r="L6">
-        <v>7.972144744645275</v>
+        <v>6.351728117252452</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.99429982076626</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.09531383745875</v>
+      </c>
+      <c r="P6">
+        <v>12.57332883964368</v>
+      </c>
+      <c r="Q6">
+        <v>16.03738723286083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.96012914016814</v>
+        <v>16.12581517600226</v>
       </c>
       <c r="C7">
-        <v>15.49107604029538</v>
+        <v>12.3824204159811</v>
       </c>
       <c r="D7">
-        <v>2.365684859243557</v>
+        <v>6.239596710947063</v>
       </c>
       <c r="E7">
-        <v>5.585304815377317</v>
+        <v>9.281289443262541</v>
       </c>
       <c r="F7">
-        <v>37.04963842797659</v>
+        <v>22.5313394279295</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.025975427726676</v>
       </c>
       <c r="I7">
-        <v>23.88599910991447</v>
+        <v>2.482504875286485</v>
       </c>
       <c r="J7">
-        <v>5.50323706610932</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.9548093940921</v>
       </c>
       <c r="L7">
-        <v>8.028427852981141</v>
+        <v>6.377458470588675</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.91039473590326</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.32726193847114</v>
+      </c>
+      <c r="P7">
+        <v>12.54550893947914</v>
+      </c>
+      <c r="Q7">
+        <v>16.10518720968709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02885666001043</v>
+        <v>17.69750967083599</v>
       </c>
       <c r="C8">
-        <v>17.12260551052348</v>
+        <v>13.52290798499988</v>
       </c>
       <c r="D8">
-        <v>2.477524196846398</v>
+        <v>6.510362864073416</v>
       </c>
       <c r="E8">
-        <v>5.574991488914643</v>
+        <v>9.61297897861947</v>
       </c>
       <c r="F8">
-        <v>38.44492311585948</v>
+        <v>23.24957467624796</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.741525344720391</v>
       </c>
       <c r="I8">
-        <v>24.28333908141165</v>
+        <v>2.675900031835071</v>
       </c>
       <c r="J8">
-        <v>5.439953729887812</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.89671532642443</v>
       </c>
       <c r="L8">
-        <v>8.283418415142036</v>
+        <v>6.488451059727515</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.54635874828599</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.30596622055877</v>
+      </c>
+      <c r="P8">
+        <v>12.42610693736216</v>
+      </c>
+      <c r="Q8">
+        <v>16.43142142836541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81818424098414</v>
+        <v>20.43516702318169</v>
       </c>
       <c r="C9">
-        <v>20.06156654959221</v>
+        <v>15.49718931056849</v>
       </c>
       <c r="D9">
-        <v>2.69755302149267</v>
+        <v>7.011259222534187</v>
       </c>
       <c r="E9">
-        <v>5.561694973461851</v>
+        <v>10.22777980116108</v>
       </c>
       <c r="F9">
-        <v>41.38638065827881</v>
+        <v>24.69612414133394</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.89170698137566</v>
       </c>
       <c r="I9">
-        <v>25.25524487995168</v>
+        <v>3.031604669524735</v>
       </c>
       <c r="J9">
-        <v>5.322150637005307</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.85079429334882</v>
       </c>
       <c r="L9">
-        <v>8.805560987234582</v>
+        <v>6.695425308661769</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.85119211552487</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.055911466728</v>
+      </c>
+      <c r="P9">
+        <v>12.20715926389258</v>
+      </c>
+      <c r="Q9">
+        <v>17.13421417378976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.45650247304165</v>
+        <v>22.19372370103347</v>
       </c>
       <c r="C10">
-        <v>22.05716521043911</v>
+        <v>16.78860375761591</v>
       </c>
       <c r="D10">
-        <v>2.861914259946319</v>
+        <v>7.297057537556677</v>
       </c>
       <c r="E10">
-        <v>5.556812369735852</v>
+        <v>10.50831101369219</v>
       </c>
       <c r="F10">
-        <v>43.67450725415127</v>
+        <v>25.58166057406994</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.231546370574879</v>
       </c>
       <c r="I10">
-        <v>26.10099777999245</v>
+        <v>3.277941483193736</v>
       </c>
       <c r="J10">
-        <v>5.238850401537912</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.78474281369914</v>
       </c>
       <c r="L10">
-        <v>9.201626488423868</v>
+        <v>6.783275038589366</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34811868869606</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.11297453631975</v>
+      </c>
+      <c r="P10">
+        <v>12.07287811561825</v>
+      </c>
+      <c r="Q10">
+        <v>17.5759274824162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.69006944850118</v>
+        <v>22.74020561632733</v>
       </c>
       <c r="C11">
-        <v>22.93231618049337</v>
+        <v>17.03653514290411</v>
       </c>
       <c r="D11">
-        <v>2.937882247051599</v>
+        <v>6.852226950445647</v>
       </c>
       <c r="E11">
-        <v>5.555834045097066</v>
+        <v>9.441155733752161</v>
       </c>
       <c r="F11">
-        <v>44.74445387115276</v>
+        <v>24.58455696339932</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.047867526589732</v>
       </c>
       <c r="I11">
-        <v>26.51759803628018</v>
+        <v>3.354656251183464</v>
       </c>
       <c r="J11">
-        <v>5.20151370553243</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.30144556754839</v>
       </c>
       <c r="L11">
-        <v>9.38444556280974</v>
+        <v>6.411247326205663</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.12002936851284</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.53729852374932</v>
+      </c>
+      <c r="P11">
+        <v>12.14391788335126</v>
+      </c>
+      <c r="Q11">
+        <v>17.03395706429091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15082133486686</v>
+        <v>22.86515947944498</v>
       </c>
       <c r="C12">
-        <v>23.25929400821673</v>
+        <v>16.94519435544204</v>
       </c>
       <c r="D12">
-        <v>2.966881997006101</v>
+        <v>6.417945381076994</v>
       </c>
       <c r="E12">
-        <v>5.55566078915456</v>
+        <v>8.632465466040365</v>
       </c>
       <c r="F12">
-        <v>45.15400337933472</v>
+        <v>23.56907060462067</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.261818862648489</v>
       </c>
       <c r="I12">
-        <v>26.68022794018832</v>
+        <v>3.366883667166087</v>
       </c>
       <c r="J12">
-        <v>5.187441650153154</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.93049894552005</v>
       </c>
       <c r="L12">
-        <v>9.454062259437524</v>
+        <v>6.197609800523482</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.03368820874945</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.81995452173525</v>
+      </c>
+      <c r="P12">
+        <v>12.2410040036278</v>
+      </c>
+      <c r="Q12">
+        <v>16.49674970144384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05186872030291</v>
+        <v>22.65769633537901</v>
       </c>
       <c r="C13">
-        <v>23.18906541896528</v>
+        <v>16.61990378073454</v>
       </c>
       <c r="D13">
-        <v>2.960624995186903</v>
+        <v>5.967447802457708</v>
       </c>
       <c r="E13">
-        <v>5.555689002351541</v>
+        <v>8.012329337464022</v>
       </c>
       <c r="F13">
-        <v>45.06560036803258</v>
+        <v>22.42987752218906</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.558231274558494</v>
       </c>
       <c r="I13">
-        <v>26.64498102605442</v>
+        <v>3.333785162065086</v>
       </c>
       <c r="J13">
-        <v>5.190469592199113</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.59853379036139</v>
       </c>
       <c r="L13">
-        <v>9.439051609092662</v>
+        <v>6.100015305040347</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.0522832278519</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.93129958473252</v>
+      </c>
+      <c r="P13">
+        <v>12.36299259547405</v>
+      </c>
+      <c r="Q13">
+        <v>15.89715543683931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.72810176542668</v>
+        <v>22.35521430182483</v>
       </c>
       <c r="C14">
-        <v>22.95930377934075</v>
+        <v>16.28878127732834</v>
       </c>
       <c r="D14">
-        <v>2.940263041524296</v>
+        <v>5.647861760453687</v>
       </c>
       <c r="E14">
-        <v>5.555815721267727</v>
+        <v>7.716828111710106</v>
       </c>
       <c r="F14">
-        <v>44.77805840461053</v>
+        <v>21.56568905101239</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.493974060442699</v>
       </c>
       <c r="I14">
-        <v>26.53087827428227</v>
+        <v>3.291145925298736</v>
       </c>
       <c r="J14">
-        <v>5.200354738667672</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.38236581344163</v>
       </c>
       <c r="L14">
-        <v>9.390165132324309</v>
+        <v>6.103381902573625</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.11292586732836</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.22055967368349</v>
+      </c>
+      <c r="P14">
+        <v>12.46040522930417</v>
+      </c>
+      <c r="Q14">
+        <v>15.44287609580435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.52896414573176</v>
+        <v>22.20371987037135</v>
       </c>
       <c r="C15">
-        <v>22.81800092784971</v>
+        <v>16.16583388997659</v>
       </c>
       <c r="D15">
-        <v>2.927822947914369</v>
+        <v>5.566792200909611</v>
       </c>
       <c r="E15">
-        <v>5.555919627223138</v>
+        <v>7.66373024315974</v>
       </c>
       <c r="F15">
-        <v>44.60250915422914</v>
+        <v>21.32324163282845</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.706867663278361</v>
       </c>
       <c r="I15">
-        <v>26.46163070745463</v>
+        <v>3.271975171270766</v>
       </c>
       <c r="J15">
-        <v>5.206417913247831</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.33353191040168</v>
       </c>
       <c r="L15">
-        <v>9.360271561211347</v>
+        <v>6.111730079009003</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15007290766016</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.01006766913781</v>
+      </c>
+      <c r="P15">
+        <v>12.48884801404026</v>
+      </c>
+      <c r="Q15">
+        <v>15.31432328999429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.37497820503551</v>
+        <v>21.50529826759967</v>
       </c>
       <c r="C16">
-        <v>21.99933737722477</v>
+        <v>15.69299091732186</v>
       </c>
       <c r="D16">
-        <v>2.856978616504473</v>
+        <v>5.524093475828569</v>
       </c>
       <c r="E16">
-        <v>5.556902824354519</v>
+        <v>7.650487134083206</v>
       </c>
       <c r="F16">
-        <v>43.60518409326507</v>
+        <v>21.12592563524476</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.437060586586134</v>
       </c>
       <c r="I16">
-        <v>26.07443733308132</v>
+        <v>3.175783423021738</v>
       </c>
       <c r="J16">
-        <v>5.241300526389493</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.42112000718312</v>
       </c>
       <c r="L16">
-        <v>9.189732377207841</v>
+        <v>6.087016100712131</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.36303361485206</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.69287075586806</v>
+      </c>
+      <c r="P16">
+        <v>12.51012770662313</v>
+      </c>
+      <c r="Q16">
+        <v>15.22004412021092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68747154637578</v>
+        <v>21.12560051634684</v>
       </c>
       <c r="C17">
-        <v>21.48893208446022</v>
+        <v>15.50903114213789</v>
       </c>
       <c r="D17">
-        <v>2.813864860792563</v>
+        <v>5.662434806166696</v>
       </c>
       <c r="E17">
-        <v>5.557836495622875</v>
+        <v>7.772563803116764</v>
       </c>
       <c r="F17">
-        <v>43.00092050425215</v>
+        <v>21.44372196901439</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.683815900511686</v>
       </c>
       <c r="I17">
-        <v>25.84526577983357</v>
+        <v>3.124632006250634</v>
       </c>
       <c r="J17">
-        <v>5.262833364261414</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.60151304757484</v>
       </c>
       <c r="L17">
-        <v>9.085790976322578</v>
+        <v>6.05487617030847</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.49381907417055</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.84140188826957</v>
+      </c>
+      <c r="P17">
+        <v>12.47655276362903</v>
+      </c>
+      <c r="Q17">
+        <v>15.39356830497381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.29779079510558</v>
+        <v>21.00056199985472</v>
       </c>
       <c r="C18">
-        <v>21.19226812186796</v>
+        <v>15.53980045184505</v>
       </c>
       <c r="D18">
-        <v>2.789175761631848</v>
+        <v>5.980291700468161</v>
       </c>
       <c r="E18">
-        <v>5.55848921889341</v>
+        <v>8.159873889479073</v>
       </c>
       <c r="F18">
-        <v>42.65608292318873</v>
+        <v>22.25344749201923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.463048153486876</v>
       </c>
       <c r="I18">
-        <v>25.71643269065637</v>
+        <v>3.104677449888335</v>
       </c>
       <c r="J18">
-        <v>5.275271805813324</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.89525541059406</v>
       </c>
       <c r="L18">
-        <v>9.026254718123175</v>
+        <v>6.080557030762428</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.56912005322573</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.40900517246577</v>
+      </c>
+      <c r="P18">
+        <v>12.39365623843968</v>
+      </c>
+      <c r="Q18">
+        <v>15.8265984064431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.16527355816402</v>
+        <v>21.06593638862066</v>
       </c>
       <c r="C19">
-        <v>21.09128398237283</v>
+        <v>15.78582417725666</v>
       </c>
       <c r="D19">
-        <v>2.780833463691027</v>
+        <v>6.437310061867811</v>
       </c>
       <c r="E19">
-        <v>5.558729577711575</v>
+        <v>8.89868284669685</v>
       </c>
       <c r="F19">
-        <v>42.53978898556343</v>
+        <v>23.35592833748706</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.098886751688077</v>
       </c>
       <c r="I19">
-        <v>25.67331549023661</v>
+        <v>3.120545999377309</v>
       </c>
       <c r="J19">
-        <v>5.279492795316133</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.23598483999044</v>
       </c>
       <c r="L19">
-        <v>9.006139366872198</v>
+        <v>6.246991614237149</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.59463113374642</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.26169338919772</v>
+      </c>
+      <c r="P19">
+        <v>12.2913832054676</v>
+      </c>
+      <c r="Q19">
+        <v>16.40211093193276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75931891516173</v>
+        <v>21.70312700257963</v>
       </c>
       <c r="C20">
-        <v>21.54358378721364</v>
+        <v>16.52873056005458</v>
       </c>
       <c r="D20">
-        <v>2.818442729263379</v>
+        <v>7.232118205326617</v>
       </c>
       <c r="E20">
-        <v>5.557725006109955</v>
+        <v>10.43187334774245</v>
       </c>
       <c r="F20">
-        <v>43.06496280226013</v>
+        <v>25.2792512744089</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.139932588136988</v>
       </c>
       <c r="I20">
-        <v>25.86935101628005</v>
+        <v>3.222223987902348</v>
       </c>
       <c r="J20">
-        <v>5.260535731583792</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.74673274408462</v>
       </c>
       <c r="L20">
-        <v>9.096830030796033</v>
+        <v>6.755850539137422</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.47988935677208</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.83821647988202</v>
+      </c>
+      <c r="P20">
+        <v>12.11642700484215</v>
+      </c>
+      <c r="Q20">
+        <v>17.40277460701839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.82337050444978</v>
+        <v>23.02801451426057</v>
       </c>
       <c r="C21">
-        <v>23.02690800547328</v>
+        <v>17.52253472208477</v>
       </c>
       <c r="D21">
-        <v>2.946237012031337</v>
+        <v>7.548078203932546</v>
       </c>
       <c r="E21">
-        <v>5.555772985005846</v>
+        <v>10.87057939012301</v>
       </c>
       <c r="F21">
-        <v>44.86239539586753</v>
+        <v>26.2143783335811</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.413034484436795</v>
       </c>
       <c r="I21">
-        <v>26.56425831717323</v>
+        <v>3.412784515468927</v>
       </c>
       <c r="J21">
-        <v>5.197449541379436</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.79378256661925</v>
       </c>
       <c r="L21">
-        <v>9.404513658398322</v>
+        <v>6.909225889629238</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.09511345209356</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.80060182967065</v>
+      </c>
+      <c r="P21">
+        <v>11.99648204067345</v>
+      </c>
+      <c r="Q21">
+        <v>17.88746776869939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15293376401772</v>
+        <v>23.85878147032415</v>
       </c>
       <c r="C22">
-        <v>23.97072241833127</v>
+        <v>18.10031171523865</v>
       </c>
       <c r="D22">
-        <v>3.031146969973113</v>
+        <v>7.711255154864284</v>
       </c>
       <c r="E22">
-        <v>5.555657781827629</v>
+        <v>11.07483791938852</v>
       </c>
       <c r="F22">
-        <v>46.06283719404972</v>
+        <v>26.76549609702636</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.582075761651154</v>
       </c>
       <c r="I22">
-        <v>27.04697919025071</v>
+        <v>3.52993675968022</v>
       </c>
       <c r="J22">
-        <v>5.156599462866533</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.82586392973519</v>
       </c>
       <c r="L22">
-        <v>9.607871010185177</v>
+        <v>6.979989973541066</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84378284171101</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.34600841431265</v>
+      </c>
+      <c r="P22">
+        <v>11.92313468800528</v>
+      </c>
+      <c r="Q22">
+        <v>18.18488709420292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.44660043992697</v>
+        <v>23.43414186407504</v>
       </c>
       <c r="C23">
-        <v>23.46923470980635</v>
+        <v>17.76826537416107</v>
       </c>
       <c r="D23">
-        <v>2.98567952309007</v>
+        <v>7.620021317334376</v>
       </c>
       <c r="E23">
-        <v>5.555606088867978</v>
+        <v>10.96511028245335</v>
       </c>
       <c r="F23">
-        <v>45.41969408541576</v>
+        <v>26.49479215973067</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.492862195067263</v>
       </c>
       <c r="I23">
-        <v>26.78662450481677</v>
+        <v>3.464415453155149</v>
       </c>
       <c r="J23">
-        <v>5.1783720094307</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.827591474356</v>
       </c>
       <c r="L23">
-        <v>9.499122414322724</v>
+        <v>6.943130351423061</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.97793679154003</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.05625287866026</v>
+      </c>
+      <c r="P23">
+        <v>11.95856722040077</v>
+      </c>
+      <c r="Q23">
+        <v>18.04516996724021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72684769444768</v>
+        <v>21.72303251487751</v>
       </c>
       <c r="C24">
-        <v>21.51888581817272</v>
+        <v>16.50268698994912</v>
       </c>
       <c r="D24">
-        <v>2.816372775399249</v>
+        <v>7.274107704067519</v>
       </c>
       <c r="E24">
-        <v>5.557775050730789</v>
+        <v>10.54215376727887</v>
       </c>
       <c r="F24">
-        <v>43.03600131470464</v>
+        <v>25.42677214178147</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.146683993668087</v>
       </c>
       <c r="I24">
-        <v>25.85845300515287</v>
+        <v>3.217029810603907</v>
       </c>
       <c r="J24">
-        <v>5.261574306771849</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.81552565645531</v>
       </c>
       <c r="L24">
-        <v>9.091838586102551</v>
+        <v>6.799677631396689</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.48618663144086</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.91784042140537</v>
+      </c>
+      <c r="P24">
+        <v>12.1032954700131</v>
+      </c>
+      <c r="Q24">
+        <v>17.491380275409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.82239136440408</v>
+        <v>19.70746431752292</v>
       </c>
       <c r="C25">
-        <v>19.29609667336151</v>
+        <v>15.03147843974472</v>
       </c>
       <c r="D25">
-        <v>2.637737634117698</v>
+        <v>6.885914468741013</v>
       </c>
       <c r="E25">
-        <v>5.564488096550242</v>
+        <v>10.06708922312377</v>
       </c>
       <c r="F25">
-        <v>40.56861006739579</v>
+        <v>24.26757325653122</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.757134019450521</v>
       </c>
       <c r="I25">
-        <v>24.97024047544895</v>
+        <v>2.94186914626846</v>
       </c>
       <c r="J25">
-        <v>5.353402968153049</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.82886020904206</v>
       </c>
       <c r="L25">
-        <v>8.66207036749673</v>
+        <v>6.639411388303704</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03762111838711</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.60228767838063</v>
+      </c>
+      <c r="P25">
+        <v>12.26887272216143</v>
+      </c>
+      <c r="Q25">
+        <v>16.90968510563144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.12071511647874</v>
+        <v>17.86826677044756</v>
       </c>
       <c r="C2">
-        <v>13.77884795505132</v>
+        <v>14.22203376252999</v>
       </c>
       <c r="D2">
-        <v>6.576227587015275</v>
+        <v>6.700151480051746</v>
       </c>
       <c r="E2">
-        <v>9.69922937666988</v>
+        <v>9.774462006280562</v>
       </c>
       <c r="F2">
-        <v>23.47550066002935</v>
+        <v>22.96917287499465</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.666140677809799</v>
+        <v>1.633222512518099</v>
       </c>
       <c r="I2">
-        <v>2.724098533901272</v>
+        <v>2.791544289765972</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>13.9069532330149</v>
+        <v>13.41921775927488</v>
       </c>
       <c r="L2">
-        <v>6.518787686301398</v>
+        <v>11.82187845767531</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.071184809688903</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.52678960818506</v>
       </c>
       <c r="O2">
-        <v>14.55912940667645</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.39180326781487</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.5471418339904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.57632389288951</v>
+      </c>
+      <c r="R2">
+        <v>12.37309057495734</v>
+      </c>
+      <c r="S2">
+        <v>16.1110473711895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92774261012593</v>
+        <v>16.7281145077271</v>
       </c>
       <c r="C3">
-        <v>12.9136096460947</v>
+        <v>13.26513090234323</v>
       </c>
       <c r="D3">
-        <v>6.366867359779836</v>
+        <v>6.483331424724965</v>
       </c>
       <c r="E3">
-        <v>9.442730251043308</v>
+        <v>9.522518570278176</v>
       </c>
       <c r="F3">
-        <v>22.90550387630963</v>
+        <v>22.454771556293</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.885055691416299</v>
+        <v>1.844292332072894</v>
       </c>
       <c r="I3">
-        <v>2.574759202553574</v>
+        <v>2.656873848431678</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>13.94406383364977</v>
+        <v>13.49029698915794</v>
       </c>
       <c r="L3">
-        <v>6.432850283290242</v>
+        <v>11.9670836259335</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.037253653160736</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.446269175833823</v>
       </c>
       <c r="O3">
-        <v>13.809775157174</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.48409493843649</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.28265298251564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.82504123015541</v>
+      </c>
+      <c r="R3">
+        <v>12.44424326679622</v>
+      </c>
+      <c r="S3">
+        <v>15.88978561916126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14801743866616</v>
+        <v>15.98282537809554</v>
       </c>
       <c r="C4">
-        <v>12.35538084205353</v>
+        <v>12.6469246104265</v>
       </c>
       <c r="D4">
-        <v>6.235782238614326</v>
+        <v>6.347825752921546</v>
       </c>
       <c r="E4">
-        <v>9.281180032070788</v>
+        <v>9.364090424747102</v>
       </c>
       <c r="F4">
-        <v>22.55622684863171</v>
+        <v>22.13930850218147</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.024453417265757</v>
+        <v>1.978744593262607</v>
       </c>
       <c r="I4">
-        <v>2.480422664158762</v>
+        <v>2.571923013615804</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>13.97142157675143</v>
+        <v>13.53723068902853</v>
       </c>
       <c r="L4">
-        <v>6.378571228080944</v>
+        <v>12.05779660367942</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.038289553260357</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.395419528536944</v>
       </c>
       <c r="O4">
-        <v>13.32922108149374</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.54315172590763</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.12440532883521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.34309460668562</v>
+      </c>
+      <c r="R4">
+        <v>12.49075437187156</v>
+      </c>
+      <c r="S4">
+        <v>15.75741720602061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.81290802727333</v>
+        <v>15.66231133142103</v>
       </c>
       <c r="C5">
-        <v>12.13034096798165</v>
+        <v>12.3966146437394</v>
       </c>
       <c r="D5">
-        <v>6.183150235739156</v>
+        <v>6.2934383603087</v>
       </c>
       <c r="E5">
-        <v>9.21466728330128</v>
+        <v>9.298935700902794</v>
       </c>
       <c r="F5">
-        <v>22.40732534470277</v>
+        <v>22.00411883852722</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.082755348196651</v>
+        <v>2.034992578341879</v>
       </c>
       <c r="I5">
-        <v>2.507403389264217</v>
+        <v>2.537696242041461</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>13.97867374562511</v>
+        <v>13.55231627443834</v>
       </c>
       <c r="L5">
-        <v>6.355827375970685</v>
+        <v>12.090742399897</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.041354828062197</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.374102890300369</v>
       </c>
       <c r="O5">
-        <v>13.12864177863644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.56838891034906</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.0554953798535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.14189592789032</v>
+      </c>
+      <c r="R5">
+        <v>12.51107535468594</v>
+      </c>
+      <c r="S5">
+        <v>15.69891929549242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.74988936116761</v>
+        <v>15.60180530523976</v>
       </c>
       <c r="C6">
-        <v>12.10382686960018</v>
+        <v>12.36598012554095</v>
       </c>
       <c r="D6">
-        <v>6.176051088249277</v>
+        <v>6.286047964746548</v>
       </c>
       <c r="E6">
-        <v>9.20393211516347</v>
+        <v>9.288433519748706</v>
       </c>
       <c r="F6">
-        <v>22.37417749564084</v>
+        <v>21.973301018584</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.092789386504898</v>
+        <v>2.044677257693948</v>
       </c>
       <c r="I6">
-        <v>2.519057444798724</v>
+        <v>2.533422369161008</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>13.97382605056337</v>
+        <v>13.54896188507499</v>
       </c>
       <c r="L6">
-        <v>6.351728117252452</v>
+        <v>12.09084777499422</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.038725858347794</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.37024698589739</v>
       </c>
       <c r="O6">
-        <v>13.09531383745875</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.57332883964368</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.03738723286083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.10846118428883</v>
+      </c>
+      <c r="R6">
+        <v>12.51531769327473</v>
+      </c>
+      <c r="S6">
+        <v>15.68259566827794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.12581517600226</v>
+        <v>15.96096885511476</v>
       </c>
       <c r="C7">
-        <v>12.3824204159811</v>
+        <v>12.67396366625675</v>
       </c>
       <c r="D7">
-        <v>6.239596710947063</v>
+        <v>6.351611467836879</v>
       </c>
       <c r="E7">
-        <v>9.281289443262541</v>
+        <v>9.364225531537478</v>
       </c>
       <c r="F7">
-        <v>22.5313394279295</v>
+        <v>22.11478514842724</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.025975427726676</v>
+        <v>1.980221544006961</v>
       </c>
       <c r="I7">
-        <v>2.482504875286485</v>
+        <v>2.574927416590563</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>13.9548093940921</v>
+        <v>13.52134591835411</v>
       </c>
       <c r="L7">
-        <v>6.377458470588675</v>
+        <v>12.04391478895732</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.028356083012032</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.394339318921411</v>
       </c>
       <c r="O7">
-        <v>13.32726193847114</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.54550893947914</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.10518720968709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.34112495130216</v>
+      </c>
+      <c r="R7">
+        <v>12.49336745806227</v>
+      </c>
+      <c r="S7">
+        <v>15.73853923207607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.69750967083599</v>
+        <v>17.46304102477018</v>
       </c>
       <c r="C8">
-        <v>13.52290798499988</v>
+        <v>13.93559289072346</v>
       </c>
       <c r="D8">
-        <v>6.510362864073416</v>
+        <v>6.631691319257927</v>
       </c>
       <c r="E8">
-        <v>9.61297897861947</v>
+        <v>9.689732045118228</v>
       </c>
       <c r="F8">
-        <v>23.24957467624796</v>
+        <v>22.76273179131241</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.741525344720391</v>
+        <v>1.705902693712973</v>
       </c>
       <c r="I8">
-        <v>2.675900031835071</v>
+        <v>2.749402918458657</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>13.89671532642443</v>
+        <v>13.42195058065503</v>
       </c>
       <c r="L8">
-        <v>6.488451059727515</v>
+        <v>11.85431218831297</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.039879856144378</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.498318060397182</v>
       </c>
       <c r="O8">
-        <v>14.30596622055877</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.42610693736216</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.43142142836541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.32253724917086</v>
+      </c>
+      <c r="R8">
+        <v>12.40050074615178</v>
+      </c>
+      <c r="S8">
+        <v>16.01066522903309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.43516702318169</v>
+        <v>20.07940931719335</v>
       </c>
       <c r="C9">
-        <v>15.49718931056849</v>
+        <v>16.11807102032899</v>
       </c>
       <c r="D9">
-        <v>7.011259222534187</v>
+        <v>7.151767006464127</v>
       </c>
       <c r="E9">
-        <v>10.22777980116108</v>
+        <v>10.2948558879982</v>
       </c>
       <c r="F9">
-        <v>24.69612414133394</v>
+        <v>24.07000656711217</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.89170698137566</v>
+        <v>1.907983126503126</v>
       </c>
       <c r="I9">
-        <v>3.031604669524735</v>
+        <v>3.069572708399289</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>13.85079429334882</v>
+        <v>13.28316650647092</v>
       </c>
       <c r="L9">
-        <v>6.695425308661769</v>
+        <v>11.51719628165374</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.256540784516112</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.692337774250635</v>
       </c>
       <c r="O9">
-        <v>16.055911466728</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.20715926389258</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.13421417378976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.07609177191132</v>
+      </c>
+      <c r="R9">
+        <v>12.23654257140301</v>
+      </c>
+      <c r="S9">
+        <v>16.60263697868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.19372370103347</v>
+        <v>21.76198835717064</v>
       </c>
       <c r="C10">
-        <v>16.78860375761591</v>
+        <v>17.53799182901206</v>
       </c>
       <c r="D10">
-        <v>7.297057537556677</v>
+        <v>7.450136094979834</v>
       </c>
       <c r="E10">
-        <v>10.50831101369219</v>
+        <v>10.56880085020963</v>
       </c>
       <c r="F10">
-        <v>25.58166057406994</v>
+        <v>24.86159854729708</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.231546370574879</v>
+        <v>2.235002050582493</v>
       </c>
       <c r="I10">
-        <v>3.277941483193736</v>
+        <v>3.292456533281499</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>13.78474281369914</v>
+        <v>13.15014749490641</v>
       </c>
       <c r="L10">
-        <v>6.783275038589366</v>
+        <v>11.24229219944306</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.472341474373245</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.771792068060889</v>
       </c>
       <c r="O10">
-        <v>17.11297453631975</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.07287811561825</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.5759274824162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.13454458146704</v>
+      </c>
+      <c r="R10">
+        <v>12.14618898969846</v>
+      </c>
+      <c r="S10">
+        <v>16.96772853901053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.74020561632733</v>
+        <v>22.3115817344108</v>
       </c>
       <c r="C11">
-        <v>17.03653514290411</v>
+        <v>17.77851454674501</v>
       </c>
       <c r="D11">
-        <v>6.852226950445647</v>
+        <v>6.995939150599267</v>
       </c>
       <c r="E11">
-        <v>9.441155733752161</v>
+        <v>9.490061307641167</v>
       </c>
       <c r="F11">
-        <v>24.58455696339932</v>
+        <v>23.88389032324476</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.047867526589732</v>
+        <v>3.047961489133557</v>
       </c>
       <c r="I11">
-        <v>3.354656251183464</v>
+        <v>3.364258891486632</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.30144556754839</v>
+        <v>12.70231561854318</v>
       </c>
       <c r="L11">
-        <v>6.411247326205663</v>
+        <v>10.8652823502172</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.233998006937339</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.401463110420952</v>
       </c>
       <c r="O11">
-        <v>16.53729852374932</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.14391788335126</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17.03395706429091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.55797057721549</v>
+      </c>
+      <c r="R11">
+        <v>12.24415130104398</v>
+      </c>
+      <c r="S11">
+        <v>16.44289443559177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.86515947944498</v>
+        <v>22.45476335114072</v>
       </c>
       <c r="C12">
-        <v>16.94519435544204</v>
+        <v>17.65415679838304</v>
       </c>
       <c r="D12">
-        <v>6.417945381076994</v>
+        <v>6.550209990501655</v>
       </c>
       <c r="E12">
-        <v>8.632465466040365</v>
+        <v>8.670893442098791</v>
       </c>
       <c r="F12">
-        <v>23.56907060462067</v>
+        <v>22.90520707832467</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.261818862648489</v>
+        <v>4.261726751825138</v>
       </c>
       <c r="I12">
-        <v>3.366883667166087</v>
+        <v>3.375381946631463</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>12.93049894552005</v>
+        <v>12.37553814748747</v>
       </c>
       <c r="L12">
-        <v>6.197609800523482</v>
+        <v>10.62925124807838</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.994805129574144</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.191137886373671</v>
       </c>
       <c r="O12">
-        <v>15.81995452173525</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.2410040036278</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.49674970144384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.83962797374172</v>
+      </c>
+      <c r="R12">
+        <v>12.3520146892686</v>
+      </c>
+      <c r="S12">
+        <v>15.93682346511477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.65769633537901</v>
+        <v>22.27902139306211</v>
       </c>
       <c r="C13">
-        <v>16.61990378073454</v>
+        <v>17.27319481573037</v>
       </c>
       <c r="D13">
-        <v>5.967447802457708</v>
+        <v>6.085972498899972</v>
       </c>
       <c r="E13">
-        <v>8.012329337464022</v>
+        <v>8.041243056941934</v>
       </c>
       <c r="F13">
-        <v>22.42987752218906</v>
+        <v>21.81962215283003</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.558231274558494</v>
+        <v>5.558930930178317</v>
       </c>
       <c r="I13">
-        <v>3.333785162065086</v>
+        <v>3.345497678908996</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.59853379036139</v>
+        <v>12.0981475820155</v>
       </c>
       <c r="L13">
-        <v>6.100015305040347</v>
+        <v>10.46200310182894</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.721010322804239</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.098094964483883</v>
       </c>
       <c r="O13">
-        <v>14.93129958473252</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.36299259547405</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.89715543683931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.9497276660619</v>
+      </c>
+      <c r="R13">
+        <v>12.47348660023529</v>
+      </c>
+      <c r="S13">
+        <v>15.38201745282706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.35521430182483</v>
+        <v>22.00533263182595</v>
       </c>
       <c r="C14">
-        <v>16.28878127732834</v>
+        <v>16.89197072350036</v>
       </c>
       <c r="D14">
-        <v>5.647861760453687</v>
+        <v>5.75572265672333</v>
       </c>
       <c r="E14">
-        <v>7.716828111710106</v>
+        <v>7.73993511699079</v>
       </c>
       <c r="F14">
-        <v>21.56568905101239</v>
+        <v>21.00096747093195</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.493974060442699</v>
+        <v>6.495329907856978</v>
       </c>
       <c r="I14">
-        <v>3.291145925298736</v>
+        <v>3.307351661599098</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.38236581344163</v>
+        <v>11.92447688356158</v>
       </c>
       <c r="L14">
-        <v>6.103381902573625</v>
+        <v>10.37097209675714</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.514742070485026</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.104989193757771</v>
       </c>
       <c r="O14">
-        <v>14.22055967368349</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.46040522930417</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.44287609580435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.237919725211</v>
+      </c>
+      <c r="R14">
+        <v>12.56534313645614</v>
+      </c>
+      <c r="S14">
+        <v>14.96548085119061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.20371987037135</v>
+        <v>21.86388518708953</v>
       </c>
       <c r="C15">
-        <v>16.16583388997659</v>
+        <v>16.75179210151457</v>
       </c>
       <c r="D15">
-        <v>5.566792200909611</v>
+        <v>5.671767612752829</v>
       </c>
       <c r="E15">
-        <v>7.66373024315974</v>
+        <v>7.686113431424054</v>
       </c>
       <c r="F15">
-        <v>21.32324163282845</v>
+        <v>20.77317758354987</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.706867663278361</v>
+        <v>6.708500625738534</v>
       </c>
       <c r="I15">
-        <v>3.271975171270766</v>
+        <v>3.290687005575993</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>12.33353191040168</v>
+        <v>11.88815737190195</v>
       </c>
       <c r="L15">
-        <v>6.111730079009003</v>
+        <v>10.35786238627217</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.45557037071173</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.114411589785382</v>
       </c>
       <c r="O15">
-        <v>14.01006766913781</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.48884801404026</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.31432328999429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.02708869648302</v>
+      </c>
+      <c r="R15">
+        <v>12.59039081515023</v>
+      </c>
+      <c r="S15">
+        <v>14.84900573680838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.50529826759967</v>
+        <v>21.19287340061825</v>
       </c>
       <c r="C16">
-        <v>15.69299091732186</v>
+        <v>16.23288454895333</v>
       </c>
       <c r="D16">
-        <v>5.524093475828569</v>
+        <v>5.626976831621808</v>
       </c>
       <c r="E16">
-        <v>7.650487134083206</v>
+        <v>7.679674100341688</v>
       </c>
       <c r="F16">
-        <v>21.12592563524476</v>
+        <v>20.60678365614289</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.437060586586134</v>
+        <v>6.44011242738745</v>
       </c>
       <c r="I16">
-        <v>3.175783423021738</v>
+        <v>3.204423590077344</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.42112000718312</v>
+        <v>11.99215143307638</v>
       </c>
       <c r="L16">
-        <v>6.087016100712131</v>
+        <v>10.47559618662992</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.419308360499703</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.09211664144979</v>
       </c>
       <c r="O16">
-        <v>13.69287075586806</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.51012770662313</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.22004412021092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.70927245405395</v>
+      </c>
+      <c r="R16">
+        <v>12.59239379697525</v>
+      </c>
+      <c r="S16">
+        <v>14.77958419293753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.12560051634684</v>
+        <v>20.81848065942438</v>
       </c>
       <c r="C17">
-        <v>15.50903114213789</v>
+        <v>16.04104101737978</v>
       </c>
       <c r="D17">
-        <v>5.662434806166696</v>
+        <v>5.769288484934449</v>
       </c>
       <c r="E17">
-        <v>7.772563803116764</v>
+        <v>7.809648739589006</v>
       </c>
       <c r="F17">
-        <v>21.44372196901439</v>
+        <v>20.92358536270036</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.683815900511686</v>
+        <v>5.687955996832838</v>
       </c>
       <c r="I17">
-        <v>3.124632006250634</v>
+        <v>3.158604476178537</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>12.60151304757484</v>
+        <v>12.16307568802881</v>
       </c>
       <c r="L17">
-        <v>6.05487617030847</v>
+        <v>10.61990705909306</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.498718133455107</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.06015046099678</v>
       </c>
       <c r="O17">
-        <v>13.84140188826957</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.47655276362903</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.39356830497381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.85797316407778</v>
+      </c>
+      <c r="R17">
+        <v>12.54725719433408</v>
+      </c>
+      <c r="S17">
+        <v>14.95177255583708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.00056199985472</v>
+        <v>20.67981230977126</v>
       </c>
       <c r="C18">
-        <v>15.53980045184505</v>
+        <v>16.09662342813217</v>
       </c>
       <c r="D18">
-        <v>5.980291700468161</v>
+        <v>6.096303573905328</v>
       </c>
       <c r="E18">
-        <v>8.159873889479073</v>
+        <v>8.205917899113311</v>
       </c>
       <c r="F18">
-        <v>22.25344749201923</v>
+        <v>21.70496814142439</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.463048153486876</v>
+        <v>4.468560175523736</v>
       </c>
       <c r="I18">
-        <v>3.104677449888335</v>
+        <v>3.1393524551196</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>12.89525541059406</v>
+        <v>12.42386874792306</v>
       </c>
       <c r="L18">
-        <v>6.080557030762428</v>
+        <v>10.81665247534032</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.687726205877403</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.083830488934963</v>
       </c>
       <c r="O18">
-        <v>14.40900517246577</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.39365623843968</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.8265984064431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.42650392076607</v>
+      </c>
+      <c r="R18">
+        <v>12.4569437012393</v>
+      </c>
+      <c r="S18">
+        <v>15.36098894665943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.06593638862066</v>
+        <v>20.71777959249529</v>
       </c>
       <c r="C19">
-        <v>15.78582417725666</v>
+        <v>16.39163399061452</v>
       </c>
       <c r="D19">
-        <v>6.437310061867811</v>
+        <v>6.565702113435072</v>
       </c>
       <c r="E19">
-        <v>8.89868284669685</v>
+        <v>8.953025444892006</v>
       </c>
       <c r="F19">
-        <v>23.35592833748706</v>
+        <v>22.76011400830152</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.098886751688077</v>
+        <v>3.106502474486324</v>
       </c>
       <c r="I19">
-        <v>3.120545999377309</v>
+        <v>3.154171914468488</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>13.23598483999044</v>
+        <v>12.71647568751131</v>
       </c>
       <c r="L19">
-        <v>6.246991614237149</v>
+        <v>11.02701275230429</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.928824782516886</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.246377924008526</v>
       </c>
       <c r="O19">
-        <v>15.26169338919772</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.2913832054676</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.40211093193276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.28059452819718</v>
+      </c>
+      <c r="R19">
+        <v>12.35050368368514</v>
+      </c>
+      <c r="S19">
+        <v>15.89714263492707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70312700257963</v>
+        <v>21.29133207651267</v>
       </c>
       <c r="C20">
-        <v>16.52873056005458</v>
+        <v>17.24549638905212</v>
       </c>
       <c r="D20">
-        <v>7.232118205326617</v>
+        <v>7.381879068540739</v>
       </c>
       <c r="E20">
-        <v>10.43187334774245</v>
+        <v>10.49406726166348</v>
       </c>
       <c r="F20">
-        <v>25.2792512744089</v>
+        <v>24.58470769552465</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.139932588136988</v>
+        <v>2.146798728234096</v>
       </c>
       <c r="I20">
-        <v>3.222223987902348</v>
+        <v>3.245926215142815</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>13.74673274408462</v>
+        <v>13.13339232739183</v>
       </c>
       <c r="L20">
-        <v>6.755850539137422</v>
+        <v>11.27926915133087</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.365874575695301</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.746618531527907</v>
       </c>
       <c r="O20">
-        <v>16.83821647988202</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.11642700484215</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.40277460701839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.85948156755266</v>
+      </c>
+      <c r="R20">
+        <v>12.17944304283517</v>
+      </c>
+      <c r="S20">
+        <v>16.81578941359917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.02801451426057</v>
+        <v>22.55399342415079</v>
       </c>
       <c r="C21">
-        <v>17.52253472208477</v>
+        <v>18.34380945647665</v>
       </c>
       <c r="D21">
-        <v>7.548078203932546</v>
+        <v>7.71002460403751</v>
       </c>
       <c r="E21">
-        <v>10.87057939012301</v>
+        <v>10.92936399482238</v>
       </c>
       <c r="F21">
-        <v>26.2143783335811</v>
+        <v>25.43747624391502</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.413034484436795</v>
+        <v>2.409771795323779</v>
       </c>
       <c r="I21">
-        <v>3.412784515468927</v>
+        <v>3.417629168968447</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>13.79378256661925</v>
+        <v>13.11481768439221</v>
       </c>
       <c r="L21">
-        <v>6.909225889629238</v>
+        <v>11.1250092259448</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.626562159406655</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.892755457937028</v>
       </c>
       <c r="O21">
-        <v>17.80060182967065</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.99648204067345</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.88746776869939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.82282344814826</v>
+      </c>
+      <c r="R21">
+        <v>12.0926229614747</v>
+      </c>
+      <c r="S21">
+        <v>17.23226627122269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.85878147032415</v>
+        <v>23.3476157978397</v>
       </c>
       <c r="C22">
-        <v>18.10031171523865</v>
+        <v>18.98297373479091</v>
       </c>
       <c r="D22">
-        <v>7.711255154864284</v>
+        <v>7.88021934973339</v>
       </c>
       <c r="E22">
-        <v>11.07483791938852</v>
+        <v>11.13115584418798</v>
       </c>
       <c r="F22">
-        <v>26.76549609702636</v>
+        <v>25.93877672861932</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.582075761651154</v>
+        <v>2.57235029703579</v>
       </c>
       <c r="I22">
-        <v>3.52993675968022</v>
+        <v>3.521701951637501</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>13.82586392973519</v>
+        <v>13.10525984827434</v>
       </c>
       <c r="L22">
-        <v>6.979989973541066</v>
+        <v>11.02267661067154</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.812215025510675</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.959170471184763</v>
       </c>
       <c r="O22">
-        <v>18.34600841431265</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.92313468800528</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.18488709420292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.36854826967572</v>
+      </c>
+      <c r="R22">
+        <v>12.0412370176084</v>
+      </c>
+      <c r="S22">
+        <v>17.4879560740994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.43414186407504</v>
+        <v>22.94254511309191</v>
       </c>
       <c r="C23">
-        <v>17.76826537416107</v>
+        <v>18.61833060182324</v>
       </c>
       <c r="D23">
-        <v>7.620021317334376</v>
+        <v>7.785229353816726</v>
       </c>
       <c r="E23">
-        <v>10.96511028245335</v>
+        <v>11.0227014109604</v>
       </c>
       <c r="F23">
-        <v>26.49479215973067</v>
+        <v>25.6943493950944</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.492862195067263</v>
+        <v>2.486553054404088</v>
       </c>
       <c r="I23">
-        <v>3.464415453155149</v>
+        <v>3.461935522930068</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>13.827591474356</v>
+        <v>13.12818936344294</v>
       </c>
       <c r="L23">
-        <v>6.943130351423061</v>
+        <v>11.08885722100159</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.728149333580186</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.924604317578607</v>
       </c>
       <c r="O23">
-        <v>18.05625287866026</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.95856722040077</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18.04516996724021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.07864308353687</v>
+      </c>
+      <c r="R23">
+        <v>12.06434317454205</v>
+      </c>
+      <c r="S23">
+        <v>17.37020050986272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72303251487751</v>
+        <v>21.30871927121979</v>
       </c>
       <c r="C24">
-        <v>16.50268698994912</v>
+        <v>17.22337049935913</v>
       </c>
       <c r="D24">
-        <v>7.274107704067519</v>
+        <v>7.424974897440206</v>
       </c>
       <c r="E24">
-        <v>10.54215376727887</v>
+        <v>10.60500567746543</v>
       </c>
       <c r="F24">
-        <v>25.42677214178147</v>
+        <v>24.72754736168552</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.146683993668087</v>
+        <v>2.153473040959629</v>
       </c>
       <c r="I24">
-        <v>3.217029810603907</v>
+        <v>3.238707057906853</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>13.81552565645531</v>
+        <v>13.19563312180377</v>
       </c>
       <c r="L24">
-        <v>6.799677631396689</v>
+        <v>11.32436121010472</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.415833627208324</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.790048951531884</v>
       </c>
       <c r="O24">
-        <v>16.91784042140537</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.1032954700131</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.491380275409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.93922222832989</v>
+      </c>
+      <c r="R24">
+        <v>12.16434881116117</v>
+      </c>
+      <c r="S24">
+        <v>16.90030860246491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.70746431752292</v>
+        <v>19.38313305385391</v>
       </c>
       <c r="C25">
-        <v>15.03147843974472</v>
+        <v>15.59940925797302</v>
       </c>
       <c r="D25">
-        <v>6.885914468741013</v>
+        <v>7.02119943378903</v>
       </c>
       <c r="E25">
-        <v>10.06708922312377</v>
+        <v>10.13656398280742</v>
       </c>
       <c r="F25">
-        <v>24.26757325653122</v>
+        <v>23.67943726896884</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.757134019450521</v>
+        <v>1.778357705935221</v>
       </c>
       <c r="I25">
-        <v>2.94186914626846</v>
+        <v>2.990800526158919</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>13.82886020904206</v>
+        <v>13.28908659447771</v>
       </c>
       <c r="L25">
-        <v>6.639411388303704</v>
+        <v>11.58608801842872</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.156579693355688</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.639767220627116</v>
       </c>
       <c r="O25">
-        <v>15.60228767838063</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.26887272216143</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.90968510563144</v>
+        <v>15.62167869356498</v>
+      </c>
+      <c r="R25">
+        <v>12.28371705681413</v>
+      </c>
+      <c r="S25">
+        <v>16.40886800634216</v>
       </c>
     </row>
   </sheetData>
